--- a/data/nzd0578/nzd0578.xlsx
+++ b/data/nzd0578/nzd0578.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.2038461538462</v>
+        <v>216.2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.8561538461538</v>
+        <v>229.86</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.9025641025641</v>
+        <v>222.9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.8274358974359</v>
+        <v>225.83</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218.568717948718</v>
+        <v>218.57</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.4228205128205</v>
+        <v>215.42</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.4153846153847</v>
+        <v>225.42</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9920512820513</v>
+        <v>217.99</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.2028205128205</v>
+        <v>218.2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.7051282051282</v>
+        <v>232.71</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.4692307692308</v>
+        <v>225.47</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>231.6751282051282</v>
+        <v>231.68</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>226.1528205128205</v>
+        <v>226.15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.0253846153846</v>
+        <v>227.03</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.0033333333333</v>
+        <v>236</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.6292307692308</v>
+        <v>230.63</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>229.8617948717949</v>
+        <v>229.86</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>225.7658974358974</v>
+        <v>225.77</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>235.8384615384616</v>
+        <v>235.84</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>224.175641025641</v>
+        <v>224.18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.4161538461538</v>
+        <v>237.42</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>226.2374358974359</v>
+        <v>226.24</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>223.8474358974359</v>
+        <v>223.85</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.1566666666667</v>
+        <v>221.16</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>218.0051282051282</v>
+        <v>218.01</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.6823076923077</v>
+        <v>216.68</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.0794871794872</v>
+        <v>216.08</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>222.1612820512821</v>
+        <v>222.16</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>220.0933333333333</v>
+        <v>220.09</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>222.6761538461539</v>
+        <v>222.68</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>221.0294871794872</v>
+        <v>221.03</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>233.0438461538461</v>
+        <v>233.04</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.4576923076924</v>
+        <v>234.46</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>244.1861538461538</v>
+        <v>244.19</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.9453846153847</v>
+        <v>230.95</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.6135897435898</v>
+        <v>231.61</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>236.6130769230769</v>
+        <v>236.61</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>232.7082051282052</v>
+        <v>232.71</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>221.4020512820513</v>
+        <v>221.4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>219.3474358974359</v>
+        <v>219.35</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>227.7374358974359</v>
+        <v>227.74</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>208.5289743589744</v>
+        <v>208.53</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>215.8317948717949</v>
+        <v>215.83</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>227.2674358974359</v>
+        <v>227.27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>222.2702564102564</v>
+        <v>222.27</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>232.6902564102564</v>
+        <v>232.69</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>228.438717948718</v>
+        <v>228.44</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>233.2002564102564</v>
+        <v>233.2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>231.6448717948718</v>
+        <v>231.64</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>237.6471794871795</v>
+        <v>237.65</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>237.8671794871795</v>
+        <v>237.87</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>221.624358974359</v>
+        <v>221.62</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>226.7892307692308</v>
+        <v>226.79</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>221.5412820512821</v>
+        <v>221.54</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>221.0930769230769</v>
+        <v>221.09</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>216.7664102564102</v>
+        <v>216.77</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>218.3174358974359</v>
+        <v>218.32</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>211.9984615384616</v>
+        <v>212</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>223.4515384615385</v>
+        <v>223.45</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>211.5328205128205</v>
+        <v>211.53</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>198.6758974358974</v>
+        <v>198.68</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>215.7125641025641</v>
+        <v>215.71</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>225.7748717948718</v>
+        <v>225.77</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>222.1451282051282</v>
+        <v>222.15</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>221.0694871794872</v>
+        <v>221.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>223.4007692307692</v>
+        <v>223.4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>222.7117948717949</v>
+        <v>222.71</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>226.1135897435898</v>
+        <v>226.11</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>226.8794871794872</v>
+        <v>226.88</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>217.8779487179488</v>
+        <v>217.88</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>223.7407692307692</v>
+        <v>223.74</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>235.304358974359</v>
+        <v>235.3</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>230.3646153846153</v>
+        <v>230.36</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>226.5866666666666</v>
+        <v>226.59</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>220.4492307692308</v>
+        <v>220.45</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>219.3843589743589</v>
+        <v>219.38</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>218.1735897435898</v>
+        <v>218.17</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>216.0710256410256</v>
+        <v>216.07</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>219.3292307692308</v>
+        <v>219.33</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>235.6920512820513</v>
+        <v>235.69</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>219.1464102564102</v>
+        <v>219.15</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>233.7825641025641</v>
+        <v>233.78</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>240.3123076923077</v>
+        <v>240.31</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>233.058717948718</v>
+        <v>233.06</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>231.4189743589744</v>
+        <v>231.42</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>221.5784615384616</v>
+        <v>221.58</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>234.5730769230769</v>
+        <v>234.57</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>221.0892307692308</v>
+        <v>221.09</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>217.4274358974359</v>
+        <v>217.43</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>239.818717948718</v>
+        <v>239.82</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>216.1382051282052</v>
+        <v>216.14</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>216.8210256410256</v>
+        <v>216.82</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>233.5315384615384</v>
+        <v>233.53</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>228.1784615384616</v>
+        <v>228.18</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>220.441282051282</v>
+        <v>220.44</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>223.4664102564102</v>
+        <v>223.47</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>224.6164102564102</v>
+        <v>224.62</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>228.7605128205128</v>
+        <v>228.76</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>222.6564102564103</v>
+        <v>222.66</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>232.534358974359</v>
+        <v>232.53</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>248.5897435897436</v>
+        <v>248.59</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>224.5807692307692</v>
+        <v>224.58</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>229.0220512820513</v>
+        <v>229.02</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>223.3282051282052</v>
+        <v>223.33</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>228.6394871794872</v>
+        <v>228.64</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>226.0615384615384</v>
+        <v>226.06</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>217.294358974359</v>
+        <v>217.29</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>230.0069230769231</v>
+        <v>230.01</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>214.6705128205128</v>
+        <v>214.67</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>213.0366666666666</v>
+        <v>213.04</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>205.2948717948718</v>
+        <v>205.29</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>227.0576923076923</v>
+        <v>227.06</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>223.3179487179487</v>
+        <v>223.32</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>223.7061538461539</v>
+        <v>223.71</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>218.2625641025641</v>
+        <v>218.26</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>217.2976923076924</v>
+        <v>217.3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>219.9020512820513</v>
+        <v>219.9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>224.6289743589744</v>
+        <v>224.63</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>237.7420512820513</v>
+        <v>237.74</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>231.2625641025641</v>
+        <v>231.26</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>227.5097435897436</v>
+        <v>227.51</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>219.7025641025641</v>
+        <v>219.7</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>214.9328205128205</v>
+        <v>214.93</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>209.3084615384616</v>
+        <v>209.31</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>215.9233333333333</v>
+        <v>215.92</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>220.344358974359</v>
+        <v>220.34</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>221.0979487179488</v>
+        <v>221.1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>219.6825641025641</v>
+        <v>219.68</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>229.0130769230769</v>
+        <v>229.01</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>238.5476923076924</v>
+        <v>238.55</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>214.621282051282</v>
+        <v>214.62</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>223.0946153846154</v>
+        <v>223.09</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>213.6610256410256</v>
+        <v>213.66</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>216.5828205128205</v>
+        <v>216.58</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>230.2633333333333</v>
+        <v>230.26</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>227.1110256410256</v>
+        <v>227.11</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>225.8884615384616</v>
+        <v>225.89</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>231.4651282051282</v>
+        <v>231.47</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>233.6394871794872</v>
+        <v>233.64</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>219.3651282051282</v>
+        <v>219.37</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>225.806923076923</v>
+        <v>225.81</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>216.5948717948718</v>
+        <v>216.59</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>216.2458974358974</v>
+        <v>216.25</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>226.3958974358974</v>
+        <v>226.4</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>224.4548717948718</v>
+        <v>224.45</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>223.3571794871795</v>
+        <v>223.36</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>231.1817948717949</v>
+        <v>231.18</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>235.5856410256411</v>
+        <v>235.59</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>234.0907692307692</v>
+        <v>234.09</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>233.8169230769231</v>
+        <v>233.82</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>229.2679487179488</v>
+        <v>229.27</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>219.1953846153847</v>
+        <v>219.2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>218.4905128205128</v>
+        <v>218.49</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>232.9433333333334</v>
+        <v>232.94</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>222.8282051282052</v>
+        <v>222.83</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>215.8035897435897</v>
+        <v>215.8</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>219.3546153846154</v>
+        <v>219.35</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>219.5041025641026</v>
+        <v>219.5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>235.058717948718</v>
+        <v>235.06</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>225.4476923076923</v>
+        <v>225.45</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>234.2884615384615</v>
+        <v>234.29</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>232.4551282051282</v>
+        <v>232.46</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>218.9051282051282</v>
+        <v>218.91</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>226.1269230769231</v>
+        <v>226.13</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>213.3674358974359</v>
+        <v>213.37</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>218.5948717948718</v>
+        <v>218.59</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>215.5828205128205</v>
+        <v>215.58</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>217.1361538461538</v>
+        <v>217.14</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>212.0505128205128</v>
+        <v>212.05</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>222.5784615384616</v>
+        <v>222.58</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>221.3479487179488</v>
+        <v>221.35</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>228.8766666666667</v>
+        <v>228.88</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>215.5389743589744</v>
+        <v>215.54</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>225.0264102564102</v>
+        <v>225.03</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>228.924358974359</v>
+        <v>228.92</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>229.1764102564102</v>
+        <v>229.18</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>237.445641025641</v>
+        <v>237.45</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>216.201282051282</v>
+        <v>216.2</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>218.1184615384616</v>
+        <v>218.12</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>235.6723076923077</v>
+        <v>235.67</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>220.991282051282</v>
+        <v>220.99</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>219.5866666666666</v>
+        <v>219.59</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>216.0917948717949</v>
+        <v>216.09</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>215.1271794871794</v>
+        <v>215.13</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>215.1492307692308</v>
+        <v>215.15</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>213.5930769230769</v>
+        <v>213.59</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>222.6379487179487</v>
+        <v>222.64</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>228.5764102564102</v>
+        <v>228.58</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>235.0079487179487</v>
+        <v>235.01</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>231.8366666666666</v>
+        <v>231.84</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>238.104358974359</v>
+        <v>238.1</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>216.748717948718</v>
+        <v>216.75</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>220.1874358974359</v>
+        <v>220.19</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>215.6333333333333</v>
+        <v>215.63</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>217.2771794871795</v>
+        <v>217.28</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>215.4315384615385</v>
+        <v>215.43</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>229.8925641025641</v>
+        <v>229.89</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>214.2805128205129</v>
+        <v>214.28</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>223.1633333333334</v>
+        <v>223.16</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>225.7123076923077</v>
+        <v>225.71</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>228.1130769230769</v>
+        <v>228.11</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>228.6051282051282</v>
+        <v>228.61</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>232.3215384615385</v>
+        <v>232.32</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>235.448717948718</v>
+        <v>235.45</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>222.1376923076924</v>
+        <v>222.14</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>232.3479487179488</v>
+        <v>232.35</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>238.2464102564102</v>
+        <v>238.25</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>243.744358974359</v>
+        <v>243.74</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>234.9369230769231</v>
+        <v>234.94</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>232.938717948718</v>
+        <v>232.94</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>222.866923076923</v>
+        <v>222.87</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>218.4138461538461</v>
+        <v>218.41</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>218.5069230769231</v>
+        <v>218.51</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>221.1158974358974</v>
+        <v>221.12</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>215.5341025641026</v>
+        <v>215.53</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>217.895641025641</v>
+        <v>217.9</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>220.6215384615384</v>
+        <v>220.62</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>237.3253846153846</v>
+        <v>237.33</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>229.1774358974359</v>
+        <v>229.18</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>230.2823076923077</v>
+        <v>230.28</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>233.6484615384616</v>
+        <v>233.65</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>230.6602564102564</v>
+        <v>230.66</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>221.4484615384616</v>
+        <v>221.45</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>224.2458974358974</v>
+        <v>224.25</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>212.7415384615385</v>
+        <v>212.74</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>214.2117948717949</v>
+        <v>214.21</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>220.9692307692308</v>
+        <v>220.97</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>214.2923076923077</v>
+        <v>214.29</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>220.704358974359</v>
+        <v>220.7</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>222.6589743589744</v>
+        <v>222.66</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>218.4969230769231</v>
+        <v>218.5</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>218.1079487179487</v>
+        <v>218.11</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>217.6215384615384</v>
+        <v>217.62</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>224.9589743589744</v>
+        <v>224.96</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>229.4528205128205</v>
+        <v>229.45</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>230.9076923076923</v>
+        <v>230.91</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>232.5797435897436</v>
+        <v>232.58</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>238.1515384615385</v>
+        <v>238.15</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>235.8523076923077</v>
+        <v>235.85</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>235.8164102564103</v>
+        <v>235.82</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>227.1192307692308</v>
+        <v>227.12</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>233.514358974359</v>
+        <v>233.51</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>231.2615384615385</v>
+        <v>231.26</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>230.1735897435898</v>
+        <v>230.17</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>220.1323076923077</v>
+        <v>220.13</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>226.2164102564102</v>
+        <v>226.22</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>232.748717948718</v>
+        <v>232.75</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>222.6369230769231</v>
+        <v>222.64</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>215.7774358974359</v>
+        <v>215.78</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>215.3141025641026</v>
+        <v>215.31</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>222.7697435897436</v>
+        <v>222.77</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>221.8689743589744</v>
+        <v>221.87</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>229.7041025641026</v>
+        <v>229.7</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>225.8066666666666</v>
+        <v>225.81</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>225.0889743589744</v>
+        <v>225.09</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>238.8123076923077</v>
+        <v>238.81</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>222.4271794871795</v>
+        <v>222.43</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>232.0258974358974</v>
+        <v>232.03</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>234.5666666666666</v>
+        <v>234.57</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>235.5035897435897</v>
+        <v>235.5</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>233.674358974359</v>
+        <v>233.67</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>229.2605128205128</v>
+        <v>229.26</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>235.8982051282051</v>
+        <v>235.9</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>225.5510256410256</v>
+        <v>225.55</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>235.1053846153847</v>
+        <v>235.11</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>218.1276923076923</v>
+        <v>218.13</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>213.4435897435897</v>
+        <v>213.44</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>232.4538461538462</v>
+        <v>232.45</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>227.0676923076923</v>
+        <v>227.07</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>235.6861538461538</v>
+        <v>235.69</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>231.3215384615385</v>
+        <v>231.32</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>233.8307692307692</v>
+        <v>233.83</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>229.6564102564103</v>
+        <v>229.66</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>231.8110256410256</v>
+        <v>231.81</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>231.3046153846153</v>
+        <v>231.3</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>228.2958974358974</v>
+        <v>228.3</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>223.0048717948718</v>
+        <v>223</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>219.5848717948718</v>
+        <v>219.58</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>213.8561538461538</v>
+        <v>213.86</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>215.5935897435897</v>
+        <v>215.59</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>216.3682051282051</v>
+        <v>216.37</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>217.6248717948718</v>
+        <v>217.62</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>214.3174358974359</v>
+        <v>214.32</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>214.2264102564102</v>
+        <v>214.23</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>230.6005128205128</v>
+        <v>230.6</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>214.0556410256411</v>
+        <v>214.06</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>231.8838461538461</v>
+        <v>231.88</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>219.3053846153846</v>
+        <v>219.31</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>222.7928205128205</v>
+        <v>222.79</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>232.5997435897436</v>
+        <v>232.6</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>236.0861538461538</v>
+        <v>236.09</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>238.4884615384616</v>
+        <v>238.49</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>232.1279487179488</v>
+        <v>232.13</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>236.7782051282052</v>
+        <v>236.78</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>224.4984615384616</v>
+        <v>224.5</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>233.4248717948718</v>
+        <v>233.42</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>218.9864102564102</v>
+        <v>218.99</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>208.4346153846154</v>
+        <v>208.43</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>217.1510256410256</v>
+        <v>217.15</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>212.6992307692308</v>
+        <v>212.7</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>235.105641025641</v>
+        <v>235.11</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>233.1441025641026</v>
+        <v>233.14</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>229.6141025641026</v>
+        <v>229.61</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>233.0833333333333</v>
+        <v>233.08</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>226.0207692307692</v>
+        <v>226.02</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>225.1776923076924</v>
+        <v>225.18</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>232.8094871794872</v>
+        <v>232.81</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>226.2235897435897</v>
+        <v>226.22</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>225.8320512820513</v>
+        <v>225.83</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>231.5648717948718</v>
+        <v>231.56</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>208.1925641025641</v>
+        <v>208.19</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>217.561282051282</v>
+        <v>217.56</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>233.4510256410256</v>
+        <v>233.45</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>223.6335897435897</v>
+        <v>223.63</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>225.9794871794872</v>
+        <v>225.98</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>232.8164102564103</v>
+        <v>232.82</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>229.176923076923</v>
+        <v>229.18</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>224.6889743589744</v>
+        <v>224.69</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>233.8553846153847</v>
+        <v>233.86</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>234.6658974358974</v>
+        <v>234.67</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>233.3984615384616</v>
+        <v>233.4</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>233.6828205128205</v>
+        <v>233.68</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>240.8551282051282</v>
+        <v>240.86</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>233.6251282051282</v>
+        <v>233.63</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>234.934358974359</v>
+        <v>234.93</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>233.5164102564102</v>
+        <v>233.52</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>222.8520512820513</v>
+        <v>222.85</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>202.1264102564103</v>
+        <v>202.13</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>217.9020512820513</v>
+        <v>217.9</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>222.8951282051282</v>
+        <v>222.9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>224.9646153846154</v>
+        <v>224.96</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>243.895641025641</v>
+        <v>243.9</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>232.5371794871795</v>
+        <v>232.54</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>233.3994871794872</v>
+        <v>233.4</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>227.2458974358974</v>
+        <v>227.25</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>233.8379487179488</v>
+        <v>233.84</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>227.4984615384616</v>
+        <v>227.5</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>221.4848717948718</v>
+        <v>221.48</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>216.3046153846153</v>
+        <v>216.3</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>232.1728205128205</v>
+        <v>232.17</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>219.2433333333333</v>
+        <v>219.24</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>221.5528205128205</v>
+        <v>221.55</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>225.4646153846154</v>
+        <v>225.46</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>226.8828205128205</v>
+        <v>226.88</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>237.4723076923077</v>
+        <v>237.47</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>227.8594871794872</v>
+        <v>227.86</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>228.391282051282</v>
+        <v>228.39</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>231.7405128205128</v>
+        <v>231.74</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>258.8607692307692</v>
+        <v>258.86</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>226.6220512820513</v>
+        <v>226.62</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>231.395641025641</v>
+        <v>231.4</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>231.9894871794872</v>
+        <v>231.99</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>233.648717948718</v>
+        <v>233.65</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>234.5397435897436</v>
+        <v>234.54</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>214.3851282051282</v>
+        <v>214.39</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>227.9730769230769</v>
+        <v>227.97</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>220.8725641025641</v>
+        <v>220.87</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>259.301282051282</v>
+        <v>259.3</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>231.9866666666667</v>
+        <v>231.99</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>231.4774358974359</v>
+        <v>231.48</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>232.8310256410256</v>
+        <v>232.83</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>230.6338461538461</v>
+        <v>230.63</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>229.6594871794872</v>
+        <v>229.66</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>231.4879487179488</v>
+        <v>231.49</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>228.5894871794872</v>
+        <v>228.59</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>220.8417948717949</v>
+        <v>220.84</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>205.3328205128205</v>
+        <v>205.33</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>218.311282051282</v>
+        <v>218.31</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>223.7664102564102</v>
+        <v>223.77</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>229.0261538461538</v>
+        <v>229.03</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>232.204358974359</v>
+        <v>232.2</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>232.0625641025641</v>
+        <v>232.06</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>229.6910256410256</v>
+        <v>229.69</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>235.0179487179488</v>
+        <v>235.02</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>272.4307692307692</v>
+        <v>272.43</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>233.2448717948718</v>
+        <v>233.24</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>234.9105128205128</v>
+        <v>234.91</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>237.6182051282051</v>
+        <v>237.62</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>229.6207692307692</v>
+        <v>229.62</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>230.371282051282</v>
+        <v>230.37</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>224.1651282051282</v>
+        <v>224.17</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>234.2558974358975</v>
+        <v>234.26</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>232.0117948717948</v>
+        <v>232.01</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>224.7789743589744</v>
+        <v>224.78</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>231.0420512820513</v>
+        <v>231.04</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>229.8825641025641</v>
+        <v>229.88</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>229.3330769230769</v>
+        <v>229.33</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>230.494358974359</v>
+        <v>230.49</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>233.0046153846154</v>
+        <v>233</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>231.784358974359</v>
+        <v>231.78</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>234.2764102564102</v>
+        <v>234.28</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>233.7948717948718</v>
+        <v>233.79</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>231.9602564102564</v>
+        <v>231.96</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>222.6684615384616</v>
+        <v>222.67</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>232.5610256410256</v>
+        <v>232.56</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>230.921282051282</v>
+        <v>230.92</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>234.931282051282</v>
+        <v>234.93</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2351750386923543</v>
+        <v>0.2351481763727645</v>
       </c>
       <c r="J2" t="n">
         <v>406</v>
@@ -15148,19 +15148,19 @@
         <v>406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04713270968750005</v>
+        <v>0.04712032477006312</v>
       </c>
       <c r="M2" t="n">
-        <v>6.428419523029239</v>
+        <v>6.428604687517142</v>
       </c>
       <c r="N2" t="n">
-        <v>67.04679156478592</v>
+        <v>67.04996567015387</v>
       </c>
       <c r="O2" t="n">
-        <v>8.188210522744631</v>
+        <v>8.188404342126363</v>
       </c>
       <c r="P2" t="n">
-        <v>223.0122190024498</v>
+        <v>223.0126438062611</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-41.03154422232103,173.02128271088972</t>
+          <t>-41.03154421870789,173.02128266538512</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-41.031557047411894,173.0214442340947</t>
+          <t>-41.03155705102497,173.02144427959934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-41.03155051518042,173.0213619647646</t>
+          <t>-41.03155051277167,173.02136193442817</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-41.03155326282446,173.02139656951383</t>
+          <t>-41.03155326523317,173.02139659985028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-41.031546443917385,173.02131069016028</t>
+          <t>-41.03154644512176,173.02131070532846</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-41.03154348861222,173.02127347041977</t>
+          <t>-41.031543485962594,173.02127343704973</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-41.03155287574136,173.02139169445167</t>
+          <t>-41.03155288007707,173.02139174905724</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-41.03154590218862,173.0213038675016</t>
+          <t>-41.03154590026163,173.02130384323246</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-41.031546100188244,173.0213063611545</t>
+          <t>-41.03154609753861,173.02130632778446</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-41.031559723733444,173.02147794089268</t>
+          <t>-41.03155972830998,173.02147799853188</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-41.031552926324736,173.02139233151644</t>
+          <t>-41.03155292704735,173.02139234061735</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-41.03155875615437,173.02146575475183</t>
+          <t>-41.031558760730924,173.021465812391</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-41.03155356849228,173.02140041920515</t>
+          <t>-41.03155356584268,173.0214003858351</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-41.03155438818244,173.02141074268803</t>
+          <t>-41.03155439251815,173.02141079729358</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-41.031562822049274,173.02151696263508</t>
+          <t>-41.031562818917955,173.0215169231977</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-41.03155777363999,173.02145338052551</t>
+          <t>-41.03155777436258,173.02145338962643</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-41.03155705271108,173.02144430083484</t>
+          <t>-41.03155705102497,173.02144427959934</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-41.03155320501492,173.02139584143984</t>
+          <t>-41.031553208868885,173.0213958899781</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-41.03156266716992,173.0215150120029</t>
+          <t>-41.03156266861514,173.02151503020477</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-41.03155171111863,173.02137702679457</t>
+          <t>-41.03155171521349,173.02137707836647</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-41.03156414924108,173.0215336780059</t>
+          <t>-41.031564152854116,173.02153372351054</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.03155364798035,173.02140142030694</t>
+          <t>-41.031553650389085,173.02140145064334</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-41.03155140280041,173.02137314373343</t>
+          <t>-41.03155140520916,173.02137317406982</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -15639,7 +15639,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-41.031548875067784,173.0213413087006</t>
+          <t>-41.03154887819917,173.02134134813795</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-41.03154591447327,173.0213040222173</t>
+          <t>-41.031545919049904,173.02130407985646</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -15673,7 +15673,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-41.031544671795594,173.0212883716636</t>
+          <t>-41.03154466962771,173.02128834436084</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-41.03154410549615,173.02128123957394</t>
+          <t>-41.0315441059779,173.0212812456412</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-41.031549818813474,173.0213531945073</t>
+          <t>-41.031549817609104,173.02135317933912</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-41.03154787616055,173.02132872819038</t>
+          <t>-41.03154787302918,173.02132868875307</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-41.03155030248869,173.0213592860592</t>
+          <t>-41.031550306101785,173.02135933156384</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-41.031548755594024,173.02133980401453</t>
+          <t>-41.03154875607577,173.0213398100818</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-41.03156004192383,173.02148194833413</t>
+          <t>-41.03156003831078,173.0214819028295</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-41.0315613700842,173.02149867583813</t>
+          <t>-41.03156137225203,173.0214987031409</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-41.03157050888896,173.0216137752813</t>
+          <t>-41.03157051250199,173.02161382078597</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-41.031558070634546,173.02145712100625</t>
+          <t>-41.03155807497022,173.0214571756118</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-41.03155869834528,173.0214650266777</t>
+          <t>-41.03155869497308,173.02146498420672</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -15860,7 +15860,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-41.03156339483761,173.02152417663714</t>
+          <t>-41.03156339194717,173.02152414023342</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-41.03155972662388,173.02147797729637</t>
+          <t>-41.03155972830998,173.02147799853188</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-41.03154910558466,173.02134421189533</t>
+          <t>-41.03154910365766,173.0213441876262</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-41.03154717545533,173.02131990332828</t>
+          <t>-41.03154717786408,173.02131993366467</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-41.031555057085555,173.02141916711133</t>
+          <t>-41.03155505949428,173.02141919744778</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-41.03153701238352,173.02119190796157</t>
+          <t>-41.03153701334704,173.02119192009613</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -15962,7 +15962,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-41.03154387280982,173.02127830907688</t>
+          <t>-41.03154387112368,173.0212782878414</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-41.031554615566215,173.0214136064459</t>
+          <t>-41.03155461797495,173.0214136367823</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-41.031549921185,173.02135448380488</t>
+          <t>-41.03154992094412,173.02135448077127</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-41.031559709762924,173.0214777649414</t>
+          <t>-41.03155970952204,173.02147776190776</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-41.03155571587142,173.0214274641219</t>
+          <t>-41.031555717075776,173.02142747929008</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-41.03156018885501,173.02148379885594</t>
+          <t>-41.03156018861414,173.0214837958223</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-41.03155872773157,173.02146539678205</t>
+          <t>-41.031558723155,173.02146533914285</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-41.031564366264405,173.02153641131798</t>
+          <t>-41.03156436891397,173.02153644468805</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-41.03156457293029,173.02153901418342</t>
+          <t>-41.03156457557985,173.0215390475535</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-41.031549314422755,173.02134684206234</t>
+          <t>-41.03154931032789,173.02134679049044</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-41.031554166338694,173.02140794870397</t>
+          <t>-41.0315541670613,173.02140795780488</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-41.031549236379455,173.02134585916255</t>
+          <t>-41.03154923517508,173.02134584399434</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-41.031548815330915,173.02134055635756</t>
+          <t>-41.03154881244043,173.02134051995387</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-41.03154475080289,173.0212893666978</t>
+          <t>-41.03154475417514,173.0212894091688</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-41.031546207859556,173.02130771719206</t>
+          <t>-41.031546210268296,173.02130774752845</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-41.0315402717023,173.02123295614905</t>
+          <t>-41.03154027314758,173.02123297435088</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -16251,7 +16251,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-41.03155103089138,173.02136845979095</t>
+          <t>-41.03155102944613,173.02136844158912</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-41.0315398342689,173.02122744705795</t>
+          <t>-41.03153983161924,173.02122741368788</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-41.03152775608898,173.02107533428614</t>
+          <t>-41.03152775994309,173.02107538282436</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-41.03154376080239,173.0212768984339</t>
+          <t>-41.03154375839363,173.0212768680975</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-41.03155321344546,173.0213959476173</t>
+          <t>-41.031553208868885,173.0213958899781</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-41.0315498036384,173.0213530033879</t>
+          <t>-41.03154980821501,173.0213530610271</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-41.03154879317045,173.02134027726257</t>
+          <t>-41.031548793652206,173.02134028332983</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-41.03155098319838,173.02136785912995</t>
+          <t>-41.03155098247574,173.02136785002904</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-41.031550335970174,173.02135970773537</t>
+          <t>-41.031550334284056,173.0213596864999</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-41.03155353163872,173.021399955058</t>
+          <t>-41.0315535282665,173.021399912587</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-41.03155425112589,173.02140901654585</t>
+          <t>-41.03155425160762,173.02140902261314</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-41.031545794999026,173.02130251753135</t>
+          <t>-41.031545796926025,173.02130254180048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-41.03155130259695,173.02137188173856</t>
+          <t>-41.03155130187432,173.02137187263764</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-41.0315621654377,173.02150869292555</t>
+          <t>-41.0315621613429,173.02150864135362</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-41.03155752506049,173.0214502498069</t>
+          <t>-41.031557520724796,173.02145019520134</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-41.031553976049196,173.02140555212696</t>
+          <t>-41.031553979180536,173.0214055915643</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-41.03154821049475,173.0213329388844</t>
+          <t>-41.03154821121736,173.02133294798531</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-41.03154721014133,173.0213203401726</t>
+          <t>-41.03154720604646,173.0213202886007</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-41.031546072728446,173.02130601531942</t>
+          <t>-41.03154606935619,173.02130597284847</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-41.03154409754725,173.02128113946378</t>
+          <t>-41.03154409658372,173.02128112732922</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-41.03154715835319,173.02131968793975</t>
+          <t>-41.03154715907583,173.02131969704067</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-41.031562529633185,173.02151327979303</t>
+          <t>-41.03156252770623,173.02151325552387</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-41.03154698660925,173.02131752495364</t>
+          <t>-41.0315469899815,173.0213175674246</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16642,7 +16642,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-41.031560735872276,173.0214906882577</t>
+          <t>-41.031560733463564,173.02149065792128</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-41.03156686985626,173.0215679430014</t>
+          <t>-41.03156686768845,173.02156791569863</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-41.031560055894325,173.02148212428537</t>
+          <t>-41.031560057098694,173.02148213945358</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-41.031558515523976,173.02146272414328</t>
+          <t>-41.031558516487465,173.02146273627787</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-41.03154927130624,173.02134629904054</t>
+          <t>-41.031549272751484,173.0213463172424</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-41.031561478475844,173.02150004097723</t>
+          <t>-41.03156147558541,173.0215000045735</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-41.0315488117178,173.02134051085295</t>
+          <t>-41.03154881244043,173.02134051995387</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-41.03154537178062,173.02129718742415</t>
+          <t>-41.031545374189356,173.02129721776055</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-41.0315664061842,173.0215621032388</t>
+          <t>-41.03156640738853,173.02156211840702</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -16795,7 +16795,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-41.031544160656765,173.02128193427768</t>
+          <t>-41.031544162342904,173.02128195551316</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -16812,7 +16812,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-41.03154480210944,173.02129001286335</t>
+          <t>-41.03154480114594,173.02129000072875</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-41.03156050005994,173.02148771832185</t>
+          <t>-41.03156049861473,173.02148770012</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-41.031555471386056,173.02142438497538</t>
+          <t>-41.03155547283129,173.0214244031772</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-41.03154820302762,173.0213328448415</t>
+          <t>-41.031548201823256,173.0213328296733</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-41.03155104486206,173.02136863574216</t>
+          <t>-41.031551048234284,173.02136867821315</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-41.03155212518016,173.02138224162442</t>
+          <t>-41.031552128552384,173.0213822840954</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-41.031556018166,173.02143127134252</t>
+          <t>-41.03155601768426,173.02143126527523</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-41.03155028394137,173.02135905246882</t>
+          <t>-41.031550287313614,173.0213590949398</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-41.0315595633134,173.0214759204869</t>
+          <t>-41.03155955921858,173.021475868915</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-41.03157464553268,173.021665875074</t>
+          <t>-41.03157464577357,173.02166587810763</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-41.03155209169876,173.02138181994823</t>
+          <t>-41.031552090976135,173.02138181084732</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-41.03155626385552,173.0214343656573</t>
+          <t>-41.031556261928564,173.02143434138816</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-41.03155091503108,173.02136700060942</t>
+          <t>-41.03155091671719,173.0213670218449</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-41.031555904474345,173.0214298394635</t>
+          <t>-41.031555904956086,173.0214298455308</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-41.03155348274151,173.0213993392287</t>
+          <t>-41.031553481296264,173.02139932102685</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-41.03154524676612,173.0212956129645</t>
+          <t>-41.03154524267123,173.02129556139258</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -17084,7 +17084,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-41.03155718904449,173.0214460178762</t>
+          <t>-41.031557191934944,173.02144605427992</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-41.03154278188086,173.0212645697178</t>
+          <t>-41.03154278139912,173.02126456365053</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-41.03154124701404,173.0212452393596</t>
+          <t>-41.031541250145466,173.0212452787969</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-41.03153397417747,173.02115364465956</t>
+          <t>-41.03153396960077,173.0211535870204</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-41.0315544185324,173.0214111249269</t>
+          <t>-41.03155442070027,173.0214111522297</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-41.03155090539612,173.02136687926375</t>
+          <t>-41.03155090732311,173.02136690353288</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-41.031551270079014,173.02137147219696</t>
+          <t>-41.0315512736921,173.0213715177016</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-41.03154615631221,173.02130706799286</t>
+          <t>-41.031546153903456,173.02130703765644</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-41.031545249897505,173.02129565240182</t>
+          <t>-41.03154525206539,173.0212956797046</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-41.03154769646791,173.0213264650941</t>
+          <t>-41.03154769454091,173.02132644082496</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-41.03155213698296,173.02138239027286</t>
+          <t>-41.03155213794645,173.02138240240743</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-41.03156445538606,173.02153753376578</t>
+          <t>-41.031564453459104,173.02153750949662</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-41.031558368592464,173.02146087362158</t>
+          <t>-41.03155836618375,173.02146084328515</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -17305,7 +17305,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-41.0315548431908,173.0214164732374</t>
+          <t>-41.031554843431664,173.02141647627104</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-41.03154750906721,173.02132410492126</t>
+          <t>-41.03154750665847,173.02132407458484</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-41.031543028297506,173.0212676731323</t>
+          <t>-41.031543025647856,173.02126763976224</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-41.03153774465359,173.02120113022787</t>
+          <t>-41.03153774609887,173.0212011484297</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-41.0315439588026,173.02127939208665</t>
+          <t>-41.031543955671204,173.02127935264932</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-41.03154811197698,173.02133169812512</t>
+          <t>-41.0315481078821,173.02133164655322</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -17407,7 +17407,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-41.031548819907535,173.02134061399676</t>
+          <t>-41.03154882183452,173.02134063826588</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-41.03154749027896,173.02132386829726</t>
+          <t>-41.03154748787021,173.02132383796084</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-41.031556255425016,173.02143425947983</t>
+          <t>-41.03155625253454,173.0214342230761</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-41.03156521219713,173.02154706547128</t>
+          <t>-41.03156521436494,173.02154709277406</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-41.03154273563258,173.0212639872588</t>
+          <t>-41.031542734428186,173.0212639720906</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-41.03155069559498,173.02136423696203</t>
+          <t>-41.031550691259255,173.02136418235648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17509,7 +17509,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-41.03154183354938,173.02125262627447</t>
+          <t>-41.03154183258588,173.0212526141399</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-41.03154457833573,173.02128719461095</t>
+          <t>-41.0315445756861,173.0212871612409</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-41.03155742991619,173.02144905151826</t>
+          <t>-41.031557426784865,173.02144901208092</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-41.031554468633914,173.0214117559244</t>
+          <t>-41.031554467670425,173.02141174378983</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-41.03155332015223,173.02139729152057</t>
+          <t>-41.03155332159747,173.02139730972243</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -17594,7 +17594,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-41.03155855888081,173.02146327019886</t>
+          <t>-41.031558563457374,173.02146332783806</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17628,7 +17628,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-41.03156060146648,173.02148899548524</t>
+          <t>-41.03156060194823,173.02148900155257</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-41.0315471920757,173.0213201126495</t>
+          <t>-41.03154719665234,173.02132017028867</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-41.031553243554605,173.0213963268225</t>
+          <t>-41.03155324644508,173.02139636322622</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-41.0315445896569,173.02128733719206</t>
+          <t>-41.03154458508027,173.0212872795529</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-41.0315442618247,173.02128320840683</t>
+          <t>-41.03154426567872,173.02128325694508</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-41.03155379683979,173.0214032950975</t>
+          <t>-41.03155380069377,173.02140334363577</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-41.03155197342989,173.02138033043022</t>
+          <t>-41.031551968853286,173.02138027279105</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-41.03155094224981,173.0213673434109</t>
+          <t>-41.031550944899436,173.02136737678094</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17764,7 +17764,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-41.03155829271799,173.02145991802428</t>
+          <t>-41.031558291031885,173.0214598967888</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-41.031562429672135,173.02151202083138</t>
+          <t>-41.03156243376692,173.02151207240328</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17798,7 +17798,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-41.03156102539863,173.02149433469583</t>
+          <t>-41.031561024676016,173.02149432559492</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-41.03156076814893,173.02149109476576</t>
+          <t>-41.03156077103937,173.02149113116948</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-41.0315564948518,173.02143727491992</t>
+          <t>-41.03155649677877,173.02143729918907</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-41.031547032616395,173.02131810437908</t>
+          <t>-41.03154703695215,173.02131815898463</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-41.03154637045042,173.02130976489974</t>
+          <t>-41.03154636996866,173.02130975883247</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-41.03155994750247,173.02148075914636</t>
+          <t>-41.031559944371146,173.021480719709</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-41.03155044532697,173.02136108500858</t>
+          <t>-41.03155044701309,173.0213611062441</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-41.03154384631343,173.0212779753764</t>
+          <t>-41.03154384294116,173.02127793290543</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-41.03154718219983,173.02131998827022</t>
+          <t>-41.03154717786408,173.02131993366467</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-41.03154732262998,173.02132175688303</t>
+          <t>-41.03154731877598,173.02132170834474</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-41.0315619346841,173.02150578669603</t>
+          <t>-41.03156193588845,173.02150580186424</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-41.031552906091385,173.02139207669055</t>
+          <t>-41.03155290825923,173.02139210399332</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-41.03156121110975,173.02149667363415</t>
+          <t>-41.031561212554976,173.021496691836</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-41.03155948888427,173.02147498309145</t>
+          <t>-41.03155949346081,173.02147504073065</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-41.03154675994571,173.0213146702974</t>
+          <t>-41.031546764522346,173.02131472793653</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-41.031553544164105,173.02140011280736</t>
+          <t>-41.03155354705459,173.02140014921105</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-41.031541557745356,173.02124915275596</t>
+          <t>-41.031541560154125,173.02124918309235</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-41.03154646848667,173.02131099959166</t>
+          <t>-41.03154646391003,173.0213109419525</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-41.031543638919025,173.02127536341166</t>
+          <t>-41.03154363626938,173.02127533004162</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-41.0315450981458,173.02129374120804</t>
+          <t>-41.03154510175894,173.02129378671265</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18138,7 +18138,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-41.03154032060039,173.02123357197806</t>
+          <t>-41.03154032011866,173.0212335659108</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-41.03155021071567,173.02135813024185</t>
+          <t>-41.031550212160916,173.02135814844368</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-41.03154905476014,173.02134357179702</t>
+          <t>-41.03154905668714,173.02134359606615</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18206,7 +18206,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-41.03155612728107,173.0214326455823</t>
+          <t>-41.031556130412405,173.02143268501968</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-41.03154359772919,173.02127484465908</t>
+          <t>-41.03154359869269,173.02127485679364</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18240,7 +18240,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-41.03155251033666,173.02138709241734</t>
+          <t>-41.03155251370889,173.0213871348883</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-41.03155617208328,173.0214332098397</t>
+          <t>-41.03155616798845,173.0214331582678</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-41.03155640886049,173.02143619190977</t>
+          <t>-41.0315564122327,173.02143623438076</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-41.03156417694105,173.02153402687483</t>
+          <t>-41.03156418103584,173.02153407844676</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -18308,7 +18308,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-41.03154421991227,173.02128268055333</t>
+          <t>-41.03154421870789,173.02128266538512</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -18325,7 +18325,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-41.03154602094023,173.0213053630866</t>
+          <t>-41.03154602238548,173.02130538128844</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-41.03156251108619,173.02151304620256</t>
+          <t>-41.031562508918356,173.02151301889978</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-41.03154871970373,173.021339352002</t>
+          <t>-41.03154871849935,173.02133933683376</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-41.03154740019173,173.02132273371546</t>
+          <t>-41.031547403323096,173.02132277315278</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-41.031544117058196,173.02128138518867</t>
+          <t>-41.031544115372064,173.0212813639532</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-41.03154321088182,173.02126997263198</t>
+          <t>-41.031543213531464,173.02127000600203</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-41.03154323159719,173.0212702335251</t>
+          <t>-41.03154323231982,173.021270242626</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -18444,7 +18444,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-41.031541769717016,173.0212518223597</t>
+          <t>-41.03154176682651,173.02125178595603</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-41.03155026659845,173.02135883404665</t>
+          <t>-41.03155026852544,173.02135885831578</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-41.03155584521979,173.0214290931876</t>
+          <t>-41.031555848592,173.0214291356586</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -18495,7 +18495,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-41.0315618869918,173.0215051860348</t>
+          <t>-41.031561888918766,173.02150521030399</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-41.031558907903225,173.0214676659464</t>
+          <t>-41.03155891103456,173.02146770538374</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-41.03156479573435,173.02154182030296</t>
+          <t>-41.03156479163958,173.02154176873103</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-41.031544734182454,173.0212891573766</t>
+          <t>-41.031544735386824,173.02128917254478</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-41.03154796456161,173.02132984153673</t>
+          <t>-41.03154796697036,173.02132987187312</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-41.03154368637164,173.0212759610389</t>
+          <t>-41.03154368324025,173.02127592160156</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-41.031545230627444,173.02129540971055</t>
+          <t>-41.03154523327709,173.0212954430806</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -18614,7 +18614,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-41.03154349680203,173.02127357356358</t>
+          <t>-41.031543495356765,173.02127355536174</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-41.03155708161568,173.02144466487186</t>
+          <t>-41.03155707920697,173.02144463453544</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-41.03154241550758,173.0212599555503</t>
+          <t>-41.03154241502584,173.021259949483</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -18665,7 +18665,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-41.031550760149194,173.02136504997793</t>
+          <t>-41.031550757017826,173.02136501054062</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-41.031553154672444,173.02139520740872</t>
+          <t>-41.031553152504586,173.02139518010594</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-41.031555409963616,173.02142361139667</t>
+          <t>-41.03155540707314,173.021423574993</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-41.031555872197465,173.0214294329555</t>
+          <t>-41.03155587677404,173.0214294905947</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-41.03155936339047,173.02147340256386</t>
+          <t>-41.031559361945256,173.021473384362</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-41.03156230104754,173.02151040086628</t>
+          <t>-41.031562302251885,173.0215104160345</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-41.03154979665305,173.0213529154123</t>
+          <t>-41.03154979882092,173.02135294271508</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-41.031559388200186,173.021473715029</t>
+          <t>-41.031559390127164,173.02147373929813</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-41.03156492917589,173.02154350094105</t>
+          <t>-41.03156493254806,173.02154354341204</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-41.03157009387444,173.02160854831402</t>
+          <t>-41.031570089779706,173.0216084967421</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-41.03156182027076,173.02150434571587</t>
+          <t>-41.031561823161205,173.02150438211956</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -18852,7 +18852,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-41.0315599431668,173.02148070454078</t>
+          <t>-41.031559944371146,173.021480719709</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -18869,7 +18869,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-41.031550481698936,173.02136154308843</t>
+          <t>-41.031550484589424,173.02136157949215</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-41.03154629842869,173.02130885784106</t>
+          <t>-41.031546294815556,173.02130881233649</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-41.031546385866434,173.0213099590528</t>
+          <t>-41.03154638875693,173.02130999545648</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -18920,7 +18920,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-41.031548836768756,173.02134082635166</t>
+          <t>-41.03154884062273,173.0213408748899</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -18937,7 +18937,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-41.03154359315254,173.0212747870199</t>
+          <t>-41.031543589298515,173.02127473848165</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-41.03154581161943,173.02130272685258</t>
+          <t>-41.03154581571431,173.02130277842448</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-41.03154837236254,173.0213349774913</t>
+          <t>-41.031548370917285,173.02133495928945</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-41.03156406397329,173.02153260409642</t>
+          <t>-41.031564068308946,173.021532658702</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-41.031556409823985,173.0214362040443</t>
+          <t>-41.0315564122327,173.02143623438076</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-41.031557447740695,173.0214492760078</t>
+          <t>-41.03155744557284,173.021449248705</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -19056,7 +19056,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-41.03156060989696,173.02148910166275</t>
+          <t>-41.03156061134218,173.0214891198646</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-41.03155780278545,173.0214537475962</t>
+          <t>-41.03155780254457,173.0214537445626</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -19090,7 +19090,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-41.03154914918292,173.0213447609844</t>
+          <t>-41.03154915062818,173.02134477918625</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-41.03155177711798,173.02137785801236</t>
+          <t>-41.03155178097196,173.02137790655064</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-41.031540969764535,173.0212417476393</t>
+          <t>-41.03154096831927,173.02124172943743</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-41.03154235095264,173.0212591425346</t>
+          <t>-41.03154234926651,173.02125912129912</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-41.0315486989885,173.0213390911088</t>
+          <t>-41.031548699711124,173.02133910020976</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-41.03154242658791,173.02126009509777</t>
+          <t>-41.03154242442001,173.02126006779503</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-41.031548450165054,173.02133595735742</t>
+          <t>-41.03154844607019,173.02133590578552</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-41.03155028635012,173.02135908280525</t>
+          <t>-41.031550287313614,173.0213590949398</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-41.03154637647229,173.0213098407408</t>
+          <t>-41.0315463793628,173.0213098771445</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-41.03154601106434,173.02130523870733</t>
+          <t>-41.03154601299133,173.02130526297645</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-41.031545554123454,173.02129948389035</t>
+          <t>-41.03154555267821,173.02129946568851</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -19277,7 +19277,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-41.03155244698699,173.02138629456957</t>
+          <t>-41.031552447950475,173.02138630670416</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-41.03155666852047,173.0214394621758</t>
+          <t>-41.03155666587087,173.02143942880576</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-41.03155803522643,173.02145667506085</t>
+          <t>-41.03155803739428,173.02145670236362</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-41.03155960594756,173.0214764574416</t>
+          <t>-41.03155960618842,173.0214764604752</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -19345,7 +19345,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-41.0315648400543,173.02154237849322</t>
+          <t>-41.03156483860907,173.02154236029136</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -19362,7 +19362,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-41.0315626801769,173.02151517581962</t>
+          <t>-41.03156267800908,173.02151514851684</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-41.03156264645511,173.02151475110966</t>
+          <t>-41.03156264982728,173.02151479358068</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-41.03155447634184,173.02141185300093</t>
+          <t>-41.03155447706446,173.02141186210184</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -19413,7 +19413,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-41.03156048392162,173.02148751506778</t>
+          <t>-41.03156047982681,173.02148746349587</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-41.03155836762899,173.021460861487</t>
+          <t>-41.03155836618375,173.02146084328515</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-41.03155734561111,173.02144798974356</t>
+          <t>-41.031557342238905,173.02144794727255</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -19464,7 +19464,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-41.031547912773526,173.02132918930386</t>
+          <t>-41.03154791060565,173.02132916200108</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-41.031553628228764,173.0214011715483</t>
+          <t>-41.031553631600985,173.02140121401928</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-41.03155976468149,173.02147845661185</t>
+          <t>-41.031559765885845,173.02147847178006</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -19515,7 +19515,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-41.031550265634955,173.0213588219121</t>
+          <t>-41.03155026852544,173.02135885831578</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-41.03154382174405,173.02127766594504</t>
+          <t>-41.03154382415281,173.02127769628146</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -19549,7 +19549,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-41.031543386480685,173.0212721841561</t>
+          <t>-41.031543382626666,173.02127213561786</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -19566,7 +19566,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-41.0315503904077,173.02136039333834</t>
+          <t>-41.03155039064856,173.021360396372</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-41.03154954421685,173.02134973615617</t>
+          <t>-41.03154954518035,173.02134974829073</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -19600,7 +19600,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-41.03155690457491,173.02144243514496</t>
+          <t>-41.03155690072094,173.0214423866067</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-41.03155324331374,173.02139632378885</t>
+          <t>-41.03155324644508,173.02139636322622</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-41.031552569109735,173.0213878326259</t>
+          <t>-41.031552570073245,173.02138784476045</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-41.031565460773976,173.02155019619065</t>
+          <t>-41.03156545860615,173.02155016888787</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-41.03155006859996,173.02135634039342</t>
+          <t>-41.031550071249576,173.0213563737635</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -19685,7 +19685,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-41.03155908566613,173.02146990477436</t>
+          <t>-41.031559089520066,173.02146995331262</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-41.03156147245409,173.02149996513617</t>
+          <t>-41.03156147558541,173.0215000045735</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-41.03156235259373,173.02151105006575</t>
+          <t>-41.031562349221545,173.02151100759477</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-41.03156063422489,173.02148940806063</t>
+          <t>-41.03156063013008,173.0214893564887</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-41.03155648786651,173.0214371869443</t>
+          <t>-41.031556487384755,173.02143718087703</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-41.03156272329261,173.02151571884164</t>
+          <t>-41.031562724978706,173.02151574007712</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-41.03155300316326,173.02139329924813</t>
+          <t>-41.031553002199765,173.02139328711354</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-41.031561978522475,173.02150633881897</t>
+          <t>-41.031561982858136,173.02150639342454</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-41.03154602961175,173.02130547229768</t>
+          <t>-41.03154603177961,173.02130549960046</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -19855,7 +19855,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-41.0315416292858,173.0212500537472</t>
+          <t>-41.03154162591352,173.02125001127624</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -19872,7 +19872,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-41.031559487679914,173.02147496792324</t>
+          <t>-41.03155948406685,173.0214749224186</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -19889,7 +19889,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-41.03155442792643,173.02141124323893</t>
+          <t>-41.03155443009429,173.0214112705417</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-41.031562524093175,173.02151321001926</t>
+          <t>-41.03156252770623,173.02151325552387</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-41.031558423992884,173.02146157135928</t>
+          <t>-41.03155842254765,173.02146155315742</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-41.031560781155946,173.02149125858247</t>
+          <t>-41.03156078043333,173.02149124948153</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-41.03155685977274,173.02144187088757</t>
+          <t>-41.03155686314495,173.02144191335856</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -19974,7 +19974,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-41.03155888381612,173.0214673625822</t>
+          <t>-41.03155888285263,173.0214673504476</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-41.03155840809537,173.02146137113888</t>
+          <t>-41.03155840375969,173.02146131653333</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-41.03155558170556,173.02142577438335</t>
+          <t>-41.03155558555952,173.02142582292163</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-41.03155061128913,173.02136317518753</t>
+          <t>-41.031550606712514,173.02136311754833</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -20042,7 +20042,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-41.0315473985056,173.02132271247996</t>
+          <t>-41.031547393928975,173.0213226548408</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-41.03154201685663,173.021254934875</t>
+          <t>-41.031542020469786,173.02125498037958</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-41.031543649035825,173.02127549082456</t>
+          <t>-41.03154364566356,173.02127544835358</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-41.03154437672257,173.02128465545354</t>
+          <t>-41.03154437840869,173.021284676689</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-41.031545557254844,173.0212995233277</t>
+          <t>-41.03154555267821,173.02129946568851</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -20127,7 +20127,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-41.03154245019382,173.02126039239457</t>
+          <t>-41.031542452602594,173.021260422731</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-41.031542364682615,173.0212593154521</t>
+          <t>-41.031542368054886,173.0212593579231</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-41.03155774666237,173.02145304075762</t>
+          <t>-41.031557746180624,173.02145303469032</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -20178,7 +20178,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-41.03154220425875,173.02125729504743</t>
+          <t>-41.031542208353635,173.02125734661934</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-41.03155895222353,173.02146822413656</t>
+          <t>-41.03155894861045,173.02146817863195</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-41.03154713595181,173.0213194058111</t>
+          <t>-41.03154714028757,173.02131946041666</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -20229,7 +20229,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-41.03155041208636,173.02136066636606</t>
+          <t>-41.03155040943675,173.02136063299602</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -20246,7 +20246,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-41.031559624735486,173.02147669406568</t>
+          <t>-41.03155962497637,173.02147669709933</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-41.03156289985023,173.02151794250162</t>
+          <t>-41.031562903463275,173.02151798800625</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-41.03156515655637,173.02154636469982</t>
+          <t>-41.03156515800158,173.02154638290168</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-41.03155918153283,173.02147111216397</t>
+          <t>-41.0315591834598,173.0214711364331</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-41.03156354995767,173.02152613030302</t>
+          <t>-41.03156355164375,173.0215261515385</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-41.031552014378384,173.02138084614927</t>
+          <t>-41.03155201582363,173.02138086435113</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -20348,7 +20348,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-41.031560399857746,173.0214864563266</t>
+          <t>-41.03156039528121,173.02148639868741</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-41.03154683630316,173.02131563196158</t>
+          <t>-41.03154683967541,173.02131567443257</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-41.03153692374025,173.02119079158197</t>
+          <t>-41.031536919404445,173.02119073697645</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-41.031545112116596,173.0212939171592</t>
+          <t>-41.03154511115309,173.02129390502463</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -20416,7 +20416,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-41.03154093001981,173.0212412470886</t>
+          <t>-41.03154093074244,173.02124125618954</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -20433,7 +20433,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-41.03156197876334,173.02150634185261</t>
+          <t>-41.031561982858136,173.02150639342454</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-41.031560136104304,173.02148313448828</t>
+          <t>-41.03156013225038,173.02148308595</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -20467,7 +20467,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-41.03155682002888,173.02144137033665</t>
+          <t>-41.031556816174934,173.02144132179836</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -20484,7 +20484,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-41.031560079017936,173.02148241551504</t>
+          <t>-41.03156007588661,173.0214823760777</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-41.0315534444427,173.02139885687967</t>
+          <t>-41.03155344372008,173.02139884777876</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -20518,7 +20518,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-41.03155265245189,173.02138888226588</t>
+          <t>-41.03155265461976,173.02138890956866</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-41.03155982176789,173.02147917558506</t>
+          <t>-41.031559822249626,173.02147918165235</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-41.03155363497319,173.0214012564903</t>
+          <t>-41.031553631600985,173.02140121401928</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-41.03155326716017,173.0213966241194</t>
+          <t>-41.03155326523317,173.02139659985028</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -20586,7 +20586,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-41.03155865257975,173.02146445028566</t>
+          <t>-41.031558648003184,173.0214643926465</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -20603,7 +20603,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-41.031536696350955,173.02118792782565</t>
+          <t>-41.031536693942165,173.02118789748923</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-41.03154549751769,173.0212987709847</t>
+          <t>-41.031545496313306,173.02129875581653</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-41.03156042442655,173.02148676575814</t>
+          <t>-41.03156042346308,173.02148675362358</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -20654,7 +20654,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-41.031551201911746,173.02137061367642</t>
+          <t>-41.03155119853951,173.02137057120544</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-41.03155340566216,173.02139836846337</t>
+          <t>-41.0315534061439,173.02139837453066</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -20688,7 +20688,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-41.03155982827141,173.0214792574934</t>
+          <t>-41.0315598316436,173.0214792999644</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-41.031556409342244,173.02143619797704</t>
+          <t>-41.0315564122327,173.02143623438076</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-41.03155219334734,173.021383100145</t>
+          <t>-41.031552194310834,173.02138311227955</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-41.03156080427951,173.0214915498121</t>
+          <t>-41.03156080861518,173.0214916044177</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-41.0315615656709,173.0215011391558</t>
+          <t>-41.031561569524825,173.02150118769404</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -20773,7 +20773,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-41.031560375048066,173.02148614386144</t>
+          <t>-41.0315603764933,173.0214861620633</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-41.03156064217361,173.02148950817082</t>
+          <t>-41.03156063952404,173.02148947480075</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-41.03156737977477,173.02157436522353</t>
+          <t>-41.03156738435127,173.02157442286276</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-41.03156058797773,173.0214888256013</t>
+          <t>-41.031560592554264,173.0214888832405</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-41.031561817862055,173.02150431537945</t>
+          <t>-41.03156181376727,173.02150426380751</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-41.03156048584858,173.02148753933693</t>
+          <t>-41.031560489220766,173.02148758180792</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -20892,7 +20892,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-41.03155046772825,173.02136136713725</t>
+          <t>-41.03155046580125,173.02136134286812</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-41.03153099762414,173.0211161579728</t>
+          <t>-41.03153100099647,173.02111620044377</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-41.03154581764131,173.02130280269358</t>
+          <t>-41.03154581571431,173.02130277842448</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-41.031550508195075,173.021361876789</t>
+          <t>-41.03155051277167,173.02136193442817</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-41.0315524522862,173.0213863613097</t>
+          <t>-41.031552447950475,173.02138630670416</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -20977,7 +20977,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-41.03157023598623,173.02161033816353</t>
+          <t>-41.03157024008099,173.02161038973546</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-41.03155956596297,173.021475953857</t>
+          <t>-41.03155956861256,173.02147598722703</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-41.03156037601155,173.02148615599603</t>
+          <t>-41.0315603764933,173.0214861620633</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -21045,7 +21045,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-41.031554595332906,173.02141335161997</t>
+          <t>-41.03155459918689,173.02141340015825</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -21062,7 +21062,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-41.03156078790032,173.02149134352445</t>
+          <t>-41.03156078982728,173.02149136779357</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-41.03155483259239,173.02141633975717</t>
+          <t>-41.03155483403763,173.02141635795903</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-41.03154918338708,173.02134519176147</t>
+          <t>-41.03154917881047,173.0213451341223</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -21113,7 +21113,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-41.031544316985304,173.0212839031106</t>
+          <t>-41.03154431264955,173.02128384850505</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -21130,7 +21130,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-41.03155922368527,173.02147164305134</t>
+          <t>-41.031559221035685,173.02147160968127</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -21147,7 +21147,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-41.03154707766004,173.02131867166997</t>
+          <t>-41.03154707452867,173.02131863223264</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-41.0315492472188,173.0213459956764</t>
+          <t>-41.031549244569185,173.02134596230636</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-41.03155292198902,173.0213922769109</t>
+          <t>-41.03155291765329,173.02139222230534</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -21198,7 +21198,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-41.03155425425723,173.0214090559832</t>
+          <t>-41.03155425160762,173.02140902261314</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-41.031564201991465,173.02153434237366</t>
+          <t>-41.031564199823656,173.02153431507088</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-41.03155517174083,173.02142061112488</t>
+          <t>-41.03155517222258,173.02142061719215</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-41.03155567131005,173.02142690289816</t>
+          <t>-41.03155567010569,173.02142688772992</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-41.03155881757654,173.0214665283306</t>
+          <t>-41.03155881709478,173.0214665222633</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-41.03158429383624,173.02178739375512</t>
+          <t>-41.031584293113646,173.0217873846542</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-41.031554009289636,173.0214059707695</t>
+          <t>-41.031554007362665,173.02140594650038</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -21317,7 +21317,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-41.03155849360469,173.02146244808185</t>
+          <t>-41.0315584976995,173.02146249965378</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-41.03155905146242,173.02146947399714</t>
+          <t>-41.03155905194417,173.02146948006444</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -21351,7 +21351,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-41.03156061013782,173.0214891046964</t>
+          <t>-41.03156061134218,173.0214891198646</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-41.03156144716271,173.0214996466037</t>
+          <t>-41.03156144740358,173.02149964963735</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-41.031542513785254,173.0212611932757</t>
+          <t>-41.0315425183619,173.02126125091488</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -21402,7 +21402,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-41.03155527844729,173.02142195502822</t>
+          <t>-41.03155527555683,173.02142191862453</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-41.03154860817878,173.02133794742608</t>
+          <t>-41.031548605770055,173.02133791708965</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-41.03158470763833,173.02179260555644</t>
+          <t>-41.03158470643402,173.02179259038823</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-41.03155904881286,173.02146944062707</t>
+          <t>-41.03155905194417,173.02146948006444</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-41.031558570442634,173.02146341581368</t>
+          <t>-41.03155857285133,173.02146344615014</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -21487,7 +21487,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-41.031559842001045,173.02147943041103</t>
+          <t>-41.03155984103756,173.02147941827644</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-41.03155777797568,173.02145343513106</t>
+          <t>-41.03155777436258,173.02145338962643</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -21521,7 +21521,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-41.03155686266321,173.02144190729126</t>
+          <t>-41.03155686314495,173.02144191335856</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -21538,7 +21538,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-41.031558580318375,173.02146354019303</t>
+          <t>-41.031558582245324,173.02146356446215</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-41.03155585750428,173.02142924790334</t>
+          <t>-41.031555857986014,173.02142925397064</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-41.03154857927384,173.0213375833891</t>
+          <t>-41.031548577587714,173.02133756215363</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -21589,7 +21589,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-41.031534009827645,173.02115409363827</t>
+          <t>-41.031534007177974,173.0211540602682</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-41.03154620207855,173.02130764438465</t>
+          <t>-41.03154620087416,173.02130762921647</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-41.03155132668433,173.0213721851027</t>
+          <t>-41.031551330056566,173.0213722275737</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-41.031556267709504,173.02143441419557</t>
+          <t>-41.03155627132256,173.0214344597002</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-41.03155925331241,173.02147201618934</t>
+          <t>-41.03155924921761,173.0214719646174</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-41.03155912011071,173.0214703385852</t>
+          <t>-41.03155911770199,173.02147030824875</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-41.031556892290446,173.02144228042923</t>
+          <t>-41.03155689132696,173.02144226829466</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-41.031561896385746,173.0215053043469</t>
+          <t>-41.0315618983127,173.02150532861603</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -21725,7 +21725,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-41.0315970409041,173.02194794335537</t>
+          <t>-41.03159704018153,173.02194793425446</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-41.031560230766516,173.0214843267097</t>
+          <t>-41.031560226189974,173.0214842690705</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-41.03156179546112,173.0215040332507</t>
+          <t>-41.031561794979396,173.0215040271834</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-41.03156433904616,173.02153606851635</t>
+          <t>-41.03156434073226,173.02153608975186</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-41.03155682629154,173.02144144921132</t>
+          <t>-41.03155682556895,173.0214414401104</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -21827,7 +21827,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-41.031557531323166,173.0214503286816</t>
+          <t>-41.031557530118796,173.02145031351336</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -21844,7 +21844,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-41.031551701242805,173.02137690241526</t>
+          <t>-41.03155170581941,173.02137696005448</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-41.031561180519205,173.02149628836153</t>
+          <t>-41.03156118437314,173.02149633689984</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -21878,7 +21878,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-41.03155907241823,173.02146973792404</t>
+          <t>-41.03155907073213,173.02146971668853</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -21895,7 +21895,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-41.03155227789389,173.0213841649532</t>
+          <t>-41.03155227885739,173.02138417708775</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-41.03155816144307,173.0214582646893</t>
+          <t>-41.0315581595161,173.02145824042017</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-41.03155707222169,173.02144454655985</t>
+          <t>-41.03155706981297,173.0214445162234</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -21946,7 +21946,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-41.03155655603327,173.021438045465</t>
+          <t>-41.031556553142806,173.0214380090613</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-41.031557646941536,173.02145178482976</t>
+          <t>-41.03155764284672,173.02145173325786</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-41.031560005070595,173.02148148418686</t>
+          <t>-41.03156000073492,173.02148142958129</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -21997,7 +21997,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-41.0315588587655,173.02146704708338</t>
+          <t>-41.0315588546707,173.02146699551147</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -22014,7 +22014,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-41.03156119978883,173.02149653105292</t>
+          <t>-41.03156120316102,173.02149657352393</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-41.03156074743406,173.02149083387252</t>
+          <t>-41.031560742857515,173.02149077623332</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-41.03155902400311,173.02146912816193</t>
+          <t>-41.03155902376225,173.0214691251283</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-41.031550295262456,173.02135919505</t>
+          <t>-41.03155029670771,173.02135921325183</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -22082,7 +22082,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-41.031559588363976,173.02147623598572</t>
+          <t>-41.031559587400494,173.02147622385112</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-41.03155804799263,173.02145683584388</t>
+          <t>-41.03155804678828,173.0214568206757</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-41.03156181497162,173.02150427897573</t>
+          <t>-41.03156181376727,173.02150426380751</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">

--- a/data/nzd0578/nzd0578.xlsx
+++ b/data/nzd0578/nzd0578.xlsx
@@ -6554,7 +6554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B841"/>
+  <dimension ref="A1:B846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14972,6 +14972,56 @@
       </c>
       <c r="B841" t="n">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0578/nzd0578.xlsx
+++ b/data/nzd0578/nzd0578.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.86</v>
+        <v>223.03</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.9</v>
+        <v>222.99</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.83</v>
+        <v>223.7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218.57</v>
+        <v>222.67</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.42</v>
+        <v>221.46</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.42</v>
+        <v>222.03</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.44</v>
+        <v>222.2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.99</v>
+        <v>222.43</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.2</v>
+        <v>221.96</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.71</v>
+        <v>223.03</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.47</v>
+        <v>223.26</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>231.68</v>
+        <v>223.42</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>226.15</v>
+        <v>223.65</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.03</v>
+        <v>223.99</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236</v>
+        <v>224.84</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.63</v>
+        <v>225.29</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>229.86</v>
+        <v>226.15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>225.77</v>
+        <v>226.13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>235.84</v>
+        <v>228.11</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>224.18</v>
+        <v>229.57</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.42</v>
+        <v>230.23</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>226.24</v>
+        <v>229.69</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>223.85</v>
+        <v>229.68</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.16</v>
+        <v>227.78</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>218.01</v>
+        <v>226.56</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.68</v>
+        <v>225.42</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.08</v>
+        <v>222.95</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>222.16</v>
+        <v>222.86</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>220.09</v>
+        <v>222.59</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>222.68</v>
+        <v>222.44</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>221.03</v>
+        <v>220.19</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>233.04</v>
+        <v>221.21</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.46</v>
+        <v>223.28</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>244.19</v>
+        <v>225.6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.95</v>
+        <v>227.19</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.61</v>
+        <v>227.63</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>236.61</v>
+        <v>230.52</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>232.71</v>
+        <v>233.08</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>221.4</v>
+        <v>231.78</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>219.35</v>
+        <v>231.59</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>227.74</v>
+        <v>231</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>208.53</v>
+        <v>225.42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>215.83</v>
+        <v>223.17</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>227.27</v>
+        <v>221.83</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>222.27</v>
+        <v>221.89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>232.69</v>
+        <v>221.95</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>221.81</v>
+        <v>221.94</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>228.44</v>
+        <v>222.41</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>233.2</v>
+        <v>223.75</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>231.64</v>
+        <v>228.19</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>237.65</v>
+        <v>229.37</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>237.87</v>
+        <v>231.9</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>221.62</v>
+        <v>230.61</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>226.79</v>
+        <v>230.19</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>221.54</v>
+        <v>229.84</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>221.09</v>
+        <v>228.87</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>216.77</v>
+        <v>227.66</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>218.32</v>
+        <v>226.81</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>212</v>
+        <v>225.58</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>223.45</v>
+        <v>225.41</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>211.53</v>
+        <v>224.11</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>198.68</v>
+        <v>222.3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>215.71</v>
+        <v>218.78</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>225.77</v>
+        <v>217.77</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>222.15</v>
+        <v>217</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>221.07</v>
+        <v>217.34</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>223.4</v>
+        <v>217.5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>222.71</v>
+        <v>217.9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>226.11</v>
+        <v>218.28</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>226.88</v>
+        <v>219.06</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>217.88</v>
+        <v>219.03</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>223.74</v>
+        <v>222.54</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>235.3</v>
+        <v>223.7</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>230.36</v>
+        <v>225.03</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>226.59</v>
+        <v>225.4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>220.45</v>
+        <v>225.91</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>219.38</v>
+        <v>224.81</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>218.17</v>
+        <v>224.86</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>216.07</v>
+        <v>223.76</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>219.33</v>
+        <v>223.27</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>235.69</v>
+        <v>221.73</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>219.15</v>
+        <v>221.68</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>233.78</v>
+        <v>229.54</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>240.31</v>
+        <v>232.23</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>233.06</v>
+        <v>232.4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>231.42</v>
+        <v>232.24</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>221.58</v>
+        <v>229.88</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>234.57</v>
+        <v>230.55</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>221.09</v>
+        <v>229.37</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>217.43</v>
+        <v>228.49</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>239.82</v>
+        <v>229.91</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>216.14</v>
+        <v>226.89</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>216.82</v>
+        <v>223.92</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>233.53</v>
+        <v>225.12</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>228.18</v>
+        <v>225.46</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>220.44</v>
+        <v>224.96</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>223.47</v>
+        <v>225.15</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>224.62</v>
+        <v>224.15</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>228.76</v>
+        <v>224.92</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>222.66</v>
+        <v>224.72</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>232.53</v>
+        <v>226.09</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>248.59</v>
+        <v>227.96</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>224.58</v>
+        <v>226.69</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>229.02</v>
+        <v>226.87</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>223.33</v>
+        <v>227.43</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>228.64</v>
+        <v>228.33</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>226.06</v>
+        <v>227.76</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>217.29</v>
+        <v>227.83</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>230.01</v>
+        <v>228.27</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>214.67</v>
+        <v>227.03</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>213.04</v>
+        <v>222.96</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>205.29</v>
+        <v>219.79</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>227.06</v>
+        <v>220.6</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>223.32</v>
+        <v>220.87</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>223.71</v>
+        <v>221.13</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>218.26</v>
+        <v>220.67</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>217.3</v>
+        <v>218.99</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>219.9</v>
+        <v>219.26</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>224.63</v>
+        <v>218.72</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>237.74</v>
+        <v>221.03</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>231.26</v>
+        <v>222.85</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>227.51</v>
+        <v>225.04</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>219.7</v>
+        <v>226.79</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>214.93</v>
+        <v>223.35</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>209.31</v>
+        <v>220.54</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>215.92</v>
+        <v>217.47</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>220.34</v>
+        <v>216.04</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>221.1</v>
+        <v>216.88</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>219.68</v>
+        <v>217.28</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>229.01</v>
+        <v>218.61</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>238.55</v>
+        <v>221.99</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>214.62</v>
+        <v>226.59</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>223.09</v>
+        <v>225.42</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>213.66</v>
+        <v>222.48</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>216.58</v>
+        <v>216.99</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>230.26</v>
+        <v>219.64</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>227.11</v>
+        <v>220.89</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>225.89</v>
+        <v>221.6</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>231.47</v>
+        <v>222.84</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>226.48</v>
+        <v>224.49</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>233.64</v>
+        <v>227.35</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>219.37</v>
+        <v>227.74</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>225.81</v>
+        <v>227.35</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>216.59</v>
+        <v>224.38</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>216.25</v>
+        <v>219.5</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>226.4</v>
+        <v>220.88</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>224.45</v>
+        <v>221.48</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>223.36</v>
+        <v>221.75</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>231.18</v>
+        <v>223.04</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>235.59</v>
+        <v>226.21</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>234.09</v>
+        <v>227.33</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>233.82</v>
+        <v>228.14</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>229.27</v>
+        <v>229.77</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>219.2</v>
+        <v>229.5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>218.49</v>
+        <v>228.81</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>232.94</v>
+        <v>229.32</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>222.83</v>
+        <v>227.23</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>215.8</v>
+        <v>225.81</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>219.35</v>
+        <v>223.96</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>219.5</v>
+        <v>222.17</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>235.06</v>
+        <v>223.42</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>225.45</v>
+        <v>224.42</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>234.29</v>
+        <v>224.61</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>232.46</v>
+        <v>229.35</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>218.91</v>
+        <v>227.78</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>226.13</v>
+        <v>227.45</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>213.37</v>
+        <v>225.03</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>218.59</v>
+        <v>221.89</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>215.58</v>
+        <v>220.84</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>217.14</v>
+        <v>220.31</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>212.05</v>
+        <v>217.4</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>222.58</v>
+        <v>218.04</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>221.35</v>
+        <v>218.41</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>223.47</v>
+        <v>218.92</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>228.88</v>
+        <v>219.82</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>215.54</v>
+        <v>219.47</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>225.03</v>
+        <v>219.98</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>228.92</v>
+        <v>220.66</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>229.18</v>
+        <v>224.62</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>237.45</v>
+        <v>227.22</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>216.2</v>
+        <v>227.36</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>218.12</v>
+        <v>225.82</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>235.67</v>
+        <v>227.32</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>220.99</v>
+        <v>226.27</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>219.59</v>
+        <v>225.31</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>216.09</v>
+        <v>224.16</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>215.13</v>
+        <v>223.16</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>215.15</v>
+        <v>222.36</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>213.59</v>
+        <v>221.56</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>222.64</v>
+        <v>219.86</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>228.58</v>
+        <v>218.68</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>235.01</v>
+        <v>222.99</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>231.84</v>
+        <v>229.52</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>238.1</v>
+        <v>231.23</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>216.75</v>
+        <v>230.06</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>220.19</v>
+        <v>228.38</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>215.63</v>
+        <v>224.5</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>217.28</v>
+        <v>217.46</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>215.43</v>
+        <v>217.06</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>229.89</v>
+        <v>219.2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>214.28</v>
+        <v>218.49</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>223.16</v>
+        <v>219.08</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>225.71</v>
+        <v>219.81</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>228.11</v>
+        <v>221.08</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>228.61</v>
+        <v>222.01</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>232.32</v>
+        <v>223.04</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>235.45</v>
+        <v>224.17</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>222.14</v>
+        <v>224</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>232.35</v>
+        <v>225.39</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>238.25</v>
+        <v>227.14</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>243.74</v>
+        <v>228.42</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>234.94</v>
+        <v>228.88</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>232.94</v>
+        <v>231.48</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>222.87</v>
+        <v>231.97</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>218.41</v>
+        <v>230.84</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>218.51</v>
+        <v>230.04</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>221.12</v>
+        <v>229.36</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>215.53</v>
+        <v>227.35</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>217.9</v>
+        <v>222.78</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>217.65</v>
+        <v>220.62</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>237.33</v>
+        <v>221.24</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>229.18</v>
+        <v>222.76</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>230.28</v>
+        <v>223.7</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>233.65</v>
+        <v>226.66</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>230.66</v>
+        <v>228.48</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>221.45</v>
+        <v>230.43</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>224.25</v>
+        <v>229.54</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>212.74</v>
+        <v>226.03</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>214.21</v>
+        <v>222.83</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>220.97</v>
+        <v>222.56</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>214.29</v>
+        <v>219.8</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>220.7</v>
+        <v>218.37</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>222.66</v>
+        <v>218.91</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>218.5</v>
+        <v>218.86</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>218.11</v>
+        <v>218.49</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>217.62</v>
+        <v>217.76</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>224.96</v>
+        <v>218.48</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>229.45</v>
+        <v>220.15</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>230.91</v>
+        <v>221.13</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>232.58</v>
+        <v>222.8</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>238.15</v>
+        <v>224.08</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>235.85</v>
+        <v>224.98</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>235.82</v>
+        <v>226.12</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>227.12</v>
+        <v>227.11</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>233.51</v>
+        <v>227.57</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>231.26</v>
+        <v>228.32</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>230.17</v>
+        <v>228.86</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>220.13</v>
+        <v>228.28</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>226.22</v>
+        <v>228.79</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>232.75</v>
+        <v>231.07</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>222.64</v>
+        <v>230.47</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>215.78</v>
+        <v>228.3</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>215.31</v>
+        <v>225.49</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>222.77</v>
+        <v>224.11</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>221.87</v>
+        <v>223.07</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>229.7</v>
+        <v>223.38</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>225.81</v>
+        <v>221.98</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>225.09</v>
+        <v>222.37</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>238.81</v>
+        <v>224.39</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>222.43</v>
+        <v>225.22</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>232.03</v>
+        <v>225.98</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>234.57</v>
+        <v>226.84</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>235.5</v>
+        <v>228.86</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>233.67</v>
+        <v>229.3</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>229.26</v>
+        <v>229.29</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>235.9</v>
+        <v>229.8</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>225.55</v>
+        <v>230.01</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>235.11</v>
+        <v>231.03</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>220.7</v>
+        <v>230.34</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>218.13</v>
+        <v>229.35</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>213.44</v>
+        <v>226.47</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>232.45</v>
+        <v>221.18</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>227.07</v>
+        <v>222.77</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>235.69</v>
+        <v>227.16</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>231.32</v>
+        <v>227.99</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>233.83</v>
+        <v>228.97</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>229.66</v>
+        <v>229.07</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>231.81</v>
+        <v>229.41</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>231.3</v>
+        <v>231.64</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>228.3</v>
+        <v>231.27</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>223</v>
+        <v>230.44</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>219.58</v>
+        <v>229.16</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>213.86</v>
+        <v>227.83</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>215.59</v>
+        <v>226.72</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>216.37</v>
+        <v>225.86</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>217.62</v>
+        <v>225.23</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>214.32</v>
+        <v>222.94</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>214.23</v>
+        <v>221.3</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>230.6</v>
+        <v>220.43</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>214.06</v>
+        <v>217.92</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>231.88</v>
+        <v>218.73</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>219.31</v>
+        <v>218.78</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>222.79</v>
+        <v>220.13</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>232.6</v>
+        <v>222.47</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>236.09</v>
+        <v>223.99</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>238.49</v>
+        <v>225.44</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>232.13</v>
+        <v>228.66</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>236.78</v>
+        <v>229.35</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>224.5</v>
+        <v>230.51</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>233.42</v>
+        <v>230.68</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>218.99</v>
+        <v>230.72</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>208.43</v>
+        <v>225.71</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>217.15</v>
+        <v>220.5</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>212.7</v>
+        <v>219.2</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>235.11</v>
+        <v>221.47</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>233.14</v>
+        <v>220.92</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>229.61</v>
+        <v>222.69</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>233.08</v>
+        <v>226.8</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>226.02</v>
+        <v>226.69</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>225.18</v>
+        <v>226.5</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>232.81</v>
+        <v>228.46</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>226.22</v>
+        <v>229.44</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>225.83</v>
+        <v>228.99</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>231.56</v>
+        <v>229.27</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>208.19</v>
+        <v>227.16</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>217.56</v>
+        <v>221.87</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>233.45</v>
+        <v>223.8</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>223.63</v>
+        <v>223.37</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>225.98</v>
+        <v>223.4</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>232.82</v>
+        <v>223.6</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>229.18</v>
+        <v>227.1</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>224.69</v>
+        <v>226.76</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>233.86</v>
+        <v>227.65</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>234.67</v>
+        <v>228.43</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>233.4</v>
+        <v>228.92</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>233.68</v>
+        <v>229.36</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>240.86</v>
+        <v>230.32</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>234.06</v>
+        <v>230.6</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>233.63</v>
+        <v>230.82</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>234.93</v>
+        <v>232.06</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>233.52</v>
+        <v>233.28</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>222.85</v>
+        <v>232.74</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>202.13</v>
+        <v>229.9</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>217.9</v>
+        <v>227.49</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>222.9</v>
+        <v>219.86</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>224.96</v>
+        <v>218.15</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>243.9</v>
+        <v>222.36</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>232.54</v>
+        <v>228.44</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>233.4</v>
+        <v>229.27</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>227.98</v>
+        <v>230.95</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>227.25</v>
+        <v>230.42</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>233.84</v>
+        <v>230.85</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>227.5</v>
+        <v>230.47</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>221.48</v>
+        <v>229.57</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>216.3</v>
+        <v>228.91</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>232.17</v>
+        <v>229.21</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>219.24</v>
+        <v>225.4</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>221.55</v>
+        <v>222.31</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>225.46</v>
+        <v>224.6</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>226.88</v>
+        <v>225.06</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>237.47</v>
+        <v>227.13</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>227.86</v>
+        <v>226.41</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>228.39</v>
+        <v>226.69</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>231.74</v>
+        <v>227.32</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>258.86</v>
+        <v>230.83</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>226.62</v>
+        <v>230.41</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>231.4</v>
+        <v>230.5</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>231.99</v>
+        <v>230.62</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>233.65</v>
+        <v>231.82</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>234.54</v>
+        <v>233.58</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>214.39</v>
+        <v>232.4</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>227.97</v>
+        <v>225.63</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>220.87</v>
+        <v>224.44</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>259.3</v>
+        <v>230.63</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>231.99</v>
+        <v>235.03</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>231.48</v>
+        <v>234.32</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>232.83</v>
+        <v>234.07</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>230.63</v>
+        <v>233.58</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>229.66</v>
+        <v>233.09</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>231.49</v>
+        <v>232.91</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>228.59</v>
+        <v>232.98</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>220.84</v>
+        <v>231.77</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>205.33</v>
+        <v>230.21</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>218.31</v>
+        <v>229.13</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>223.77</v>
+        <v>222.57</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>229.03</v>
+        <v>226.4</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>232.2</v>
+        <v>228.33</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>232.06</v>
+        <v>229.26</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>229.69</v>
+        <v>229.35</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>235.02</v>
+        <v>231.6</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>272.43</v>
+        <v>238.41</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>233.24</v>
+        <v>237.67</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>231.2</v>
+        <v>236.86</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>234.91</v>
+        <v>236.64</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>237.62</v>
+        <v>236.74</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>230.37</v>
+        <v>230</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>224.17</v>
+        <v>228.05</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>234.26</v>
+        <v>229.6</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>232.01</v>
+        <v>230.09</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>224.78</v>
+        <v>229.2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>231.04</v>
+        <v>229.46</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>229.88</v>
+        <v>229.52</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>229.33</v>
+        <v>229.5</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>230.49</v>
+        <v>229.59</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>233</v>
+        <v>229.9</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>231.78</v>
+        <v>230.06</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>234.28</v>
+        <v>230.39</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>233.79</v>
+        <v>230.63</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>231.96</v>
+        <v>230.72</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>222.67</v>
+        <v>230.21</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>232.56</v>
+        <v>230.35</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>230.92</v>
+        <v>230.38</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>234.93</v>
+        <v>230.62</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2351481763727645</v>
+        <v>0.2118873161195477</v>
       </c>
       <c r="J2" t="n">
         <v>406</v>
@@ -15198,19 +15198,19 @@
         <v>406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04712032477006312</v>
+        <v>0.1380097704326608</v>
       </c>
       <c r="M2" t="n">
-        <v>6.428604687517142</v>
+        <v>3.348721617901664</v>
       </c>
       <c r="N2" t="n">
-        <v>67.04996567015387</v>
+        <v>16.81465538803049</v>
       </c>
       <c r="O2" t="n">
-        <v>8.188404342126363</v>
+        <v>4.100567690946034</v>
       </c>
       <c r="P2" t="n">
-        <v>223.0126438062611</v>
+        <v>222.9498192221913</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-41.03155705102497,173.02144427959934</t>
+          <t>-41.03155063489477,173.0213634724844</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-41.03155051277167,173.02136193442817</t>
+          <t>-41.031550597318436,173.02136299923635</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-41.03155326523317,173.02139659985028</t>
+          <t>-41.03155126429803,173.02137139938955</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-41.03154644512176,173.02131070532846</t>
+          <t>-41.03155029670771,173.02135921325183</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-41.031543485962594,173.02127343704973</t>
+          <t>-41.031549160022266,173.02134489749827</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-41.03155288007707,173.02139174905724</t>
+          <t>-41.03154969548589,173.02135164128293</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-41.03155102005206,173.0213683232771</t>
+          <t>-41.03154985518547,173.02135365258715</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-41.03154590026163,173.02130384323246</t>
+          <t>-41.031550071249576,173.0213563737635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-41.03154609753861,173.02130632778446</t>
+          <t>-41.031549629727195,173.02135081309885</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-41.03155972830998,173.02147799853188</t>
+          <t>-41.03155063489477,173.0213634724844</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-41.03155292704735,173.02139234061735</t>
+          <t>-41.03155085095863,173.02136619366078</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-41.031558760730924,173.021465812391</t>
+          <t>-41.03155100126391,173.02136808665307</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15502,7 +15502,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-41.03155356584268,173.0214003858351</t>
+          <t>-41.03155121732766,173.02137080782947</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-41.03155439251815,173.02141079729358</t>
+          <t>-41.031551536726155,173.0213748304381</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-41.031562818917955,173.0215169231977</t>
+          <t>-41.03155233522176,173.02138488695988</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-41.03155777436258,173.02145338962643</t>
+          <t>-41.03155275795436,173.02139021100092</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-41.03155705102497,173.02144427959934</t>
+          <t>-41.03155356584268,173.0214003858351</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-41.031553208868885,173.0213958899781</t>
+          <t>-41.03155354705459,173.02140014921105</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-41.03156266861514,173.02151503020477</t>
+          <t>-41.03155540707314,173.021423574993</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-41.03155171521349,173.02137707836647</t>
+          <t>-41.031556778598926,173.0214408485502</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-41.031564152854116,173.02153372351054</t>
+          <t>-41.03155739860288,173.02144865714482</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.031553650389085,173.02140145064334</t>
+          <t>-41.03155689132696,173.02144226829466</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-41.03155140520916,173.02137317406982</t>
+          <t>-41.03155688193296,173.02144214998262</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-41.03154887819917,173.02134134813795</t>
+          <t>-41.03155509707039,173.0214196706959</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-41.031545919049904,173.02130407985646</t>
+          <t>-41.03155395099842,173.02140523662823</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-41.03154466962771,173.02128834436084</t>
+          <t>-41.03155288007707,173.02139174905724</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-41.0315441059779,173.0212812456412</t>
+          <t>-41.03155055974211,173.02136252598828</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-41.031549817609104,173.02135317933912</t>
+          <t>-41.03155047519534,173.0213614611801</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-41.03154787302918,173.02132868875307</t>
+          <t>-41.031550221555,173.02135826675573</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-41.031550306101785,173.02135933156384</t>
+          <t>-41.03155008064367,173.02135649207548</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-41.03154875607577,173.0213398100818</t>
+          <t>-41.03154796697036,173.02132987187312</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-41.03156003831078,173.0214819028295</t>
+          <t>-41.0315489251697,173.021341939698</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-41.03156137225203,173.0214987031409</t>
+          <t>-41.03155086974679,173.02136643028481</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-41.03157051250199,173.02161382078597</t>
+          <t>-41.03155304917003,173.02139387867368</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-41.03155807497022,173.0214571756118</t>
+          <t>-41.03155454282268,173.02141269028607</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-41.03155869497308,173.02146498420672</t>
+          <t>-41.03155495615999,173.0214178960154</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-41.03156339194717,173.02152414023342</t>
+          <t>-41.031557671028686,173.021452088194</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-41.03155972830998,173.02147799853188</t>
+          <t>-41.03156007588661,173.0214823760777</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -15944,7 +15944,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-41.03154910365766,173.0213441876262</t>
+          <t>-41.0315588546707,173.02146699551147</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-41.03154717786408,173.02131993366467</t>
+          <t>-41.03155867618512,173.02146474758263</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-41.03155505949428,173.02141919744778</t>
+          <t>-41.03155812194016,173.02145776717202</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-41.03153701334704,173.02119192009613</t>
+          <t>-41.03155288007707,173.02139174905724</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-41.03154387112368,173.0212782878414</t>
+          <t>-41.03155076641192,173.0213651288526</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -16029,7 +16029,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-41.03155461797495,173.0214136367823</t>
+          <t>-41.03154950760396,173.0213492750427</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-41.03154992094412,173.02135448077127</t>
+          <t>-41.03154956396853,173.02134998491476</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-41.03155970952204,173.02147776190776</t>
+          <t>-41.031549620333124,173.02135069478683</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-41.03154948881575,173.02134903841866</t>
+          <t>-41.03154961093901,173.02135057647482</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-41.031555717075776,173.02142747929008</t>
+          <t>-41.03155005246139,173.02135613713946</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-41.03156018861414,173.0214837958223</t>
+          <t>-41.03155131126841,173.02137199094966</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-41.031558723155,173.02146533914285</t>
+          <t>-41.0315554822253,173.02142452148925</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-41.03156436891397,173.02153644468805</t>
+          <t>-41.031556590718836,173.02143848230946</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -16165,7 +16165,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-41.03156457557985,173.0215390475535</t>
+          <t>-41.031558967398404,173.021468415256</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-41.03154931032789,173.02134679049044</t>
+          <t>-41.03155775557461,173.02145315300237</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-41.0315541670613,173.02140795780488</t>
+          <t>-41.0315573610269,173.02144818389664</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-41.03154923517508,173.02134584399434</t>
+          <t>-41.03155703223697,173.02144404297525</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-41.03154881244043,173.02134051995387</t>
+          <t>-41.0315561210184,173.0214325667076</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-41.03154475417514,173.0212894091688</t>
+          <t>-41.031554984342065,173.0214182509515</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-41.031546210268296,173.02130774752845</t>
+          <t>-41.031554185849366,173.02140819442894</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-41.03154027314758,173.02123297435088</t>
+          <t>-41.03155303038192,173.02139364204962</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-41.03155102944613,173.02136844158912</t>
+          <t>-41.031552870683015,173.02139163074523</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-41.03153983161924,173.02122741368788</t>
+          <t>-41.03155164945501,173.02137625018236</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-41.03152775994309,173.02107538282436</t>
+          <t>-41.0315499491264,173.02135483570729</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-41.03154375839363,173.0212768680975</t>
+          <t>-41.03154664239861,173.02131318988052</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -16369,7 +16369,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-41.031553208868885,173.0213958899781</t>
+          <t>-41.031545693590424,173.0213012403685</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-41.03154980821501,173.0213530610271</t>
+          <t>-41.03154497024076,173.0212921303447</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-41.031548793652206,173.02134028332983</t>
+          <t>-41.031545289642,173.02129615295257</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-41.03155098247574,173.02136785002904</t>
+          <t>-41.031545439948424,173.02129804594452</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-41.031550334284056,173.0213596864999</t>
+          <t>-41.03154581571431,173.02130277842448</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-41.0315535282665,173.021399912587</t>
+          <t>-41.03154617269173,173.02130727428045</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-41.03155425160762,173.02140902261314</t>
+          <t>-41.031546905434325,173.02131650261657</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-41.031545796926025,173.02130254180048</t>
+          <t>-41.031546877251934,173.02131614768058</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-41.03155130187432,173.02137187263764</t>
+          <t>-41.03155017458456,173.02135767519562</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-41.0315621613429,173.02150864135362</t>
+          <t>-41.03155126429803,173.02137139938955</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -16539,7 +16539,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-41.031557520724796,173.02145019520134</t>
+          <t>-41.03155251370889,173.0213871348883</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-41.031553979180536,173.0214055915643</t>
+          <t>-41.03155286128897,173.02139151243318</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-41.03154821121736,173.02133294798531</t>
+          <t>-41.031553340385564,173.02139754634646</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-41.03154720604646,173.0213202886007</t>
+          <t>-41.03155230703957,173.02138453202383</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16607,7 +16607,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-41.03154606935619,173.02130597284847</t>
+          <t>-41.03155235400987,173.0213851235839</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-41.03154409658372,173.02128112732922</t>
+          <t>-41.03155132066249,173.02137210926168</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-41.03154715907583,173.02131969704067</t>
+          <t>-41.03155086035272,173.0213663119728</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-41.03156252770623,173.02151325552387</t>
+          <t>-41.03154941366297,173.02134809192256</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-41.0315469899815,173.0213175674246</t>
+          <t>-41.03154936669248,173.0213475003625</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-41.031560733463564,173.02149065792128</t>
+          <t>-41.03155675041692,173.02144049361408</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -16709,7 +16709,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-41.03156686768845,173.02156791569863</t>
+          <t>-41.03155927739951,173.02147231955357</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-41.031560057098694,173.02148213945358</t>
+          <t>-41.031559437097016,173.02147433085838</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-41.031558516487465,173.02146273627787</t>
+          <t>-41.031559286793495,173.0214724378656</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-41.031549272751484,173.0213463172424</t>
+          <t>-41.03155706981297,173.0214445162234</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-41.03156147558541,173.0215000045735</t>
+          <t>-41.03155769921067,173.0214524431301</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -16794,7 +16794,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-41.03154881244043,173.02134051995387</t>
+          <t>-41.031556590718836,173.02143848230946</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-41.031545374189356,173.02129721776055</t>
+          <t>-41.031555764045855,173.02142807085028</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-41.03156640738853,173.02156211840702</t>
+          <t>-41.03155709799497,173.02144487115953</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-41.031544162342904,173.02128195551316</t>
+          <t>-41.031554261001666,173.02140914092516</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -16862,7 +16862,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-41.03154480114594,173.02129000072875</t>
+          <t>-41.031551470967656,173.021374002254</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -16879,7 +16879,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-41.03156049861473,173.02148770012</t>
+          <t>-41.03155259825541,173.0213881996965</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-41.03155547283129,173.0214244031772</t>
+          <t>-41.03155291765329,173.02139222230534</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -16913,7 +16913,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-41.031548201823256,173.0213328296733</t>
+          <t>-41.031552447950475,173.02138630670416</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-41.031551048234284,173.02136867821315</t>
+          <t>-41.03155262643759,173.0213885546326</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-41.031552128552384,173.0213822840954</t>
+          <t>-41.031551687031275,173.02137672343042</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-41.03155601768426,173.02143126527523</t>
+          <t>-41.031552410374246,173.02138583345607</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-41.031550287313614,173.0213590949398</t>
+          <t>-41.031552222493026,173.02138346721563</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-41.03155955921858,173.021475868915</t>
+          <t>-41.03155350947841,173.02139967596295</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -17015,7 +17015,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-41.03157464577357,173.02166587810763</t>
+          <t>-41.031555266162805,173.02142180031248</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-41.031552090976135,173.02138181084732</t>
+          <t>-41.03155407312092,173.02140677468458</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-41.031556261928564,173.02143434138816</t>
+          <t>-41.0315542422136,173.0214089043011</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-41.03155091671719,173.0213670218449</t>
+          <t>-41.031554768279435,173.0214155297748</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-41.031555904956086,173.0214298455308</t>
+          <t>-41.031555613741574,173.02142617785773</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-41.031553481296264,173.02139932102685</t>
+          <t>-41.031555078282345,173.02141943407184</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -17117,7 +17117,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-41.03154524267123,173.02129556139258</t>
+          <t>-41.03155514404051,173.02142026225607</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -17134,7 +17134,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-41.031557191934944,173.02144605427992</t>
+          <t>-41.031555557377466,173.02142546798552</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-41.03154278139912,173.02126456365053</t>
+          <t>-41.03155439251815,173.02141079729358</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-41.031541250145466,173.0212452787969</t>
+          <t>-41.03155056913619,173.02136264430027</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-41.03153396960077,173.0211535870204</t>
+          <t>-41.031547591205566,173.0213251393929</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-41.03155442070027,173.0214111522297</t>
+          <t>-41.031548352129064,173.02133472266544</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-41.03155090732311,173.02136690353288</t>
+          <t>-41.031548605770055,173.02133791708965</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-41.0315512736921,173.0213715177016</t>
+          <t>-41.03154885001685,173.02134099320193</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-41.031546153903456,173.02130703765644</t>
+          <t>-41.03154841788785,173.0213355508495</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-41.03154525206539,173.0212956797046</t>
+          <t>-41.03154683967541,173.02131567443257</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-41.03154769454091,173.02132644082496</t>
+          <t>-41.03154709331692,173.02131886885664</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-41.03155213794645,173.02138240240743</t>
+          <t>-41.0315465860338,173.0213124800085</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-41.031564453459104,173.02153750949662</t>
+          <t>-41.03154875607577,173.0213398100818</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-41.03155836618375,173.02146084328515</t>
+          <t>-41.03155046580125,173.02136134286812</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -17355,7 +17355,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-41.031554843431664,173.02141647627104</t>
+          <t>-41.031552523102945,173.02138725320034</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-41.03154750665847,173.02132407458484</t>
+          <t>-41.0315541670613,173.02140795780488</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-41.031543025647856,173.02126763976224</t>
+          <t>-41.031550935505344,173.02136725846893</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-41.03153774609887,173.0212011484297</t>
+          <t>-41.03154829576439,173.0213340127934</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-41.031543955671204,173.02127935264932</t>
+          <t>-41.03154541176596,173.02129769100856</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-41.0315481078821,173.02133164655322</t>
+          <t>-41.031544068401224,173.02128077239323</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-41.03154882183452,173.02134063826588</t>
+          <t>-41.03154485751089,173.02129071060074</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-41.03154748787021,173.02132383796084</t>
+          <t>-41.03154523327709,173.0212954430806</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-41.03155625253454,173.0214342230761</t>
+          <t>-41.03154648269831,173.0213111785765</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-41.03156521436494,173.02154709277406</t>
+          <t>-41.0315496579095,173.0213511680349</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17525,7 +17525,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-41.031542734428186,173.0212639720906</t>
+          <t>-41.031553979180536,173.0214055915643</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-41.031550691259255,173.02136418235648</t>
+          <t>-41.03155288007707,173.02139174905724</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-41.03154183258588,173.0212526141399</t>
+          <t>-41.031550118220025,173.02135696532355</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-41.0315445756861,173.0212871612409</t>
+          <t>-41.03154496084661,173.0212920120327</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-41.031557426784865,173.02144901208092</t>
+          <t>-41.031547450293715,173.02132336471283</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-41.031554467670425,173.02141174378983</t>
+          <t>-41.03154862455827,173.02133815371369</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-41.03155332159747,173.02139730972243</t>
+          <t>-41.03154929153968,173.0213465538664</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-41.031558563457374,173.02146332783806</t>
+          <t>-41.031550456407174,173.02136122455607</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-41.0315538758461,173.021404290132</t>
+          <t>-41.03155200642955,173.0213807460391</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-41.03156060194823,173.02148900155257</t>
+          <t>-41.031554693127184,173.02141458327856</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-41.03154719665234,173.02132017028867</t>
+          <t>-41.03155505949428,173.02141919744778</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-41.03155324644508,173.02139636322622</t>
+          <t>-41.031554693127184,173.02141458327856</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17729,7 +17729,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-41.03154458508027,173.0212872795529</t>
+          <t>-41.03155190309483,173.0213794446069</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-41.03154426567872,173.02128325694508</t>
+          <t>-41.03154731877598,173.02132170834474</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-41.03155380069377,173.02140334363577</t>
+          <t>-41.03154861516416,173.0213380354017</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-41.031551968853286,173.02138027279105</t>
+          <t>-41.03154917881047,173.0213451341223</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17797,7 +17797,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-41.031550944899436,173.02136737678094</t>
+          <t>-41.03154943245118,173.02134832854657</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-41.031558291031885,173.0214598967888</t>
+          <t>-41.031550644288835,173.0213635907964</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-41.03156243376692,173.02151207240328</t>
+          <t>-41.03155362220695,173.02140109570726</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-41.031561024676016,173.02149432559492</t>
+          <t>-41.03155467433913,173.02141434665447</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-41.03156077103937,173.02149113116948</t>
+          <t>-41.03155543525521,173.02142392992909</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17882,7 +17882,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-41.03155649677877,173.02143729918907</t>
+          <t>-41.031556966478966,173.021443214791</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-41.03154703695215,173.02131815898463</t>
+          <t>-41.03155671284091,173.02144002036593</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-41.03154636996866,173.02130975883247</t>
+          <t>-41.031556064654325,173.02143185683542</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-41.031559944371146,173.021480719709</t>
+          <t>-41.0315565437488,173.02143789074927</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-41.03155044701309,173.0213611062441</t>
+          <t>-41.031554580398826,173.0214131635342</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-41.03154384294116,173.02127793290543</t>
+          <t>-41.03155324644508,173.02139636322622</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-41.03154717786408,173.02131993366467</t>
+          <t>-41.031551508543934,173.02137447550206</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-41.03154731877598,173.02132170834474</t>
+          <t>-41.0315498270032,173.02135329765113</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-41.03156193588845,173.02150580186424</t>
+          <t>-41.03155100126391,173.02136808665307</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18035,7 +18035,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-41.03155290825923,173.02139210399332</t>
+          <t>-41.0315519406711,173.021379917855</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-41.031561212554976,173.021496691836</t>
+          <t>-41.03155211915832,173.0213821657834</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -18069,7 +18069,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-41.03155949346081,173.02147504073065</t>
+          <t>-41.03155657193082,173.02143824568537</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-41.031546764522346,173.02131472793653</t>
+          <t>-41.03155509707039,173.0214196706959</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-41.03155354705459,173.02140014921105</t>
+          <t>-41.03155478706749,173.02141576639886</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-41.031541560154125,173.02124918309235</t>
+          <t>-41.03155251370889,173.0213871348883</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-41.03154646391003,173.0213109419525</t>
+          <t>-41.03154956396853,173.02134998491476</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-41.03154363626938,173.02127533004162</t>
+          <t>-41.031548577587714,173.02133756215363</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-41.03154510175894,173.02129378671265</t>
+          <t>-41.03154807969976,173.02133129161723</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18188,7 +18188,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-41.03154032011866,173.0212335659108</t>
+          <t>-41.031545346006915,173.02129686282458</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-41.031550212160916,173.02135814844368</t>
+          <t>-41.031545947232345,173.02130443479246</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-41.03154905668714,173.02134359606615</t>
+          <t>-41.031546294815556,173.02130881233649</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-41.031551048234284,173.02136867821315</t>
+          <t>-41.03154677391649,173.02131484624854</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-41.031556130412405,173.02143268501968</t>
+          <t>-41.03154761938793,173.02132549432892</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18273,7 +18273,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-41.03154359869269,173.02127485679364</t>
+          <t>-41.03154729059359,173.02132135340875</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-41.03155251370889,173.0213871348883</t>
+          <t>-41.031547769693866,173.021327387321</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -18307,7 +18307,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-41.03155616798845,173.0214331582678</t>
+          <t>-41.031548408493734,173.02133543253748</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-41.0315564122327,173.02143623438076</t>
+          <t>-41.031552128552384,173.0213822840954</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-41.03156418103584,173.02153407844676</t>
+          <t>-41.03155457100479,173.02141304522215</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-41.03154421870789,173.02128266538512</t>
+          <t>-41.03155470252121,173.0214147015906</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -18375,7 +18375,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-41.03154602238548,173.02130538128844</t>
+          <t>-41.03155325583913,173.02139648153823</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -18392,7 +18392,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-41.031562508918356,173.02151301889978</t>
+          <t>-41.0315546649451,173.02141422834245</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-41.03154871849935,173.02133933683376</t>
+          <t>-41.03155367857121,173.02140180557944</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-41.031547403323096,173.02132277315278</t>
+          <t>-41.03155277674249,173.02139044762498</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-41.031544115372064,173.0212813639532</t>
+          <t>-41.031551696425346,173.02137684174244</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-41.031543213531464,173.02127000600203</t>
+          <t>-41.031550757017826,173.02136501054062</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-41.03154323231982,173.021270242626</t>
+          <t>-41.03155000549095,173.02135554557938</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-41.03154176682651,173.02125178595603</t>
+          <t>-41.031549253963284,173.02134608061837</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-41.03155026852544,173.02135885831578</t>
+          <t>-41.03154765696442,173.02132596757693</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-41.031555848592,173.0214291356586</t>
+          <t>-41.031546548457264,173.0213120067605</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -18545,7 +18545,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-41.031561888918766,173.02150521030399</t>
+          <t>-41.031550597318436,173.02136299923635</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-41.03155891103456,173.02146770538374</t>
+          <t>-41.0315567316289,173.02144025699002</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-41.03156479163958,173.02154176873103</t>
+          <t>-41.031558338001794,173.021460488349</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-41.031544735386824,173.02128917254478</t>
+          <t>-41.03155723890494,173.02144664584011</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-41.03154796697036,173.02132987187312</t>
+          <t>-41.03155566071167,173.0214267694179</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-41.03154368324025,173.02127592160156</t>
+          <t>-41.03155201582363,173.02138086435113</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-41.03154523327709,173.0212954430806</t>
+          <t>-41.03154540237181,173.02129757269654</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-41.031543495356765,173.02127355536174</t>
+          <t>-41.0315450266057,173.02129284021666</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-41.03155707920697,173.02144463453544</t>
+          <t>-41.03154703695215,173.02131815898463</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-41.03154241502584,173.021259949483</t>
+          <t>-41.03154636996866,173.02130975883247</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -18715,7 +18715,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-41.031550757017826,173.02136501054062</t>
+          <t>-41.03154692422259,173.02131673924058</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -18732,7 +18732,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-41.031553152504586,173.02139518010594</t>
+          <t>-41.03154760999381,173.0213253760169</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -18749,7 +18749,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-41.03155540707314,173.021423574993</t>
+          <t>-41.03154880304632,173.02134040164185</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-41.03155587677404,173.0214294905947</t>
+          <t>-41.03154967669769,173.02135140465893</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -18783,7 +18783,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-41.031559361945256,173.021473384362</t>
+          <t>-41.031550644288835,173.0213635907964</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-41.031562302251885,173.0215104160345</t>
+          <t>-41.03155170581941,173.02137696005448</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-41.03154979882092,173.02135294271508</t>
+          <t>-41.03155154612023,173.02137494875015</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-41.031559390127164,173.02147373929813</t>
+          <t>-41.031552851894915,173.02139139412117</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-41.03156493254806,173.02154354341204</t>
+          <t>-41.03155449585252,173.0214120987259</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-41.031570089779706,173.0216084967421</t>
+          <t>-41.03155569828774,173.02142724266605</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -18885,7 +18885,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-41.031561823161205,173.02150438211956</t>
+          <t>-41.031556130412405,173.02143268501968</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -18902,7 +18902,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-41.031559944371146,173.021480719709</t>
+          <t>-41.03155857285133,173.02146344615014</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-41.031550484589424,173.02136157949215</t>
+          <t>-41.03155903315623,173.02146924344035</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-41.031546294815556,173.02130881233649</t>
+          <t>-41.03155797163637,173.02145587417934</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -18953,7 +18953,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-41.03154638875693,173.02130999545648</t>
+          <t>-41.03155722011695,173.02144640921603</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-41.03154884062273,173.0213408748899</t>
+          <t>-41.03155658132483,173.02143836399742</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-41.031543589298515,173.02127473848165</t>
+          <t>-41.031554693127184,173.02141458327856</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-41.03154581571431,173.02130277842448</t>
+          <t>-41.031550400042654,173.02136051468398</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-41.031545580860644,173.0212998206245</t>
+          <t>-41.031548370917285,173.02133495928945</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-41.031564068308946,173.021532658702</t>
+          <t>-41.031548953352,173.02134229463402</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-41.0315564122327,173.02143623438076</t>
+          <t>-41.03155038125448,173.02136027805997</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -19089,7 +19089,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-41.03155744557284,173.021449248705</t>
+          <t>-41.03155126429803,173.02137139938955</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-41.03156061134218,173.0214891198646</t>
+          <t>-41.031554044938815,173.0214064197485</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-41.03155780254457,173.0214537445626</t>
+          <t>-41.03155575465184,173.02142795253823</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-41.03154915062818,173.02134477918625</t>
+          <t>-41.03155758648277,173.02145102338562</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -19157,7 +19157,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-41.03155178097196,173.02137790655064</t>
+          <t>-41.03155675041692,173.02144049361408</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-41.03154096831927,173.02124172943743</t>
+          <t>-41.03155345311413,173.0213989660908</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-41.03154234926651,173.02125912129912</t>
+          <t>-41.03155044701309,173.0213611062441</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-41.031548699711124,173.02133910020976</t>
+          <t>-41.03155019337273,173.02135791181965</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-41.03154242442001,173.02126006779503</t>
+          <t>-41.03154760059969,173.0213252577049</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-41.03154844607019,173.02133590578552</t>
+          <t>-41.031546257239,173.02130833908845</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -19259,7 +19259,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-41.031550287313614,173.0213590949398</t>
+          <t>-41.031546764522346,173.02131472793653</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-41.0315463793628,173.0213098771445</t>
+          <t>-41.03154671755168,173.02131413637653</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -19293,7 +19293,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-41.03154601299133,173.02130526297645</t>
+          <t>-41.03154636996866,173.02130975883247</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -19310,7 +19310,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-41.03154555267821,173.02129946568851</t>
+          <t>-41.03154568419628,173.02130112205649</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-41.031552447950475,173.02138630670416</t>
+          <t>-41.03154636057453,173.02130964052046</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -19344,7 +19344,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-41.03155666587087,173.02143942880576</t>
+          <t>-41.03154792939388,173.0213293986251</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-41.03155803739428,173.02145670236362</t>
+          <t>-41.03154885001685,173.02134099320193</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-41.03155960618842,173.0214764604752</t>
+          <t>-41.03155041883083,173.02136075130804</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-41.03156483860907,173.02154236029136</t>
+          <t>-41.03155162127279,173.02137589524628</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-41.03156267800908,173.02151514851684</t>
+          <t>-41.031552466738596,173.02138654332822</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-41.03156264982728,173.02151479358068</t>
+          <t>-41.03155353766054,173.02140003089903</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-41.03155447706446,173.02141186210184</t>
+          <t>-41.031554467670425,173.02141174378983</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-41.03156047982681,173.02148746349587</t>
+          <t>-41.03155489979582,173.02141718614325</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-41.03155836618375,173.02146084328515</t>
+          <t>-41.03155560434755,173.0214260595457</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-41.031557342238905,173.02144794727255</t>
+          <t>-41.03155611162438,173.0214324483956</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-41.03154791060565,173.02132916200108</t>
+          <t>-41.03155556677148,173.02142558629757</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -19531,7 +19531,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-41.031553631600985,173.02140121401928</t>
+          <t>-41.031556045866296,173.02143162021133</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-41.031559765885845,173.02147847178006</t>
+          <t>-41.03155818769806,173.0214585953563</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-41.03155026852544,173.02135885831578</t>
+          <t>-41.031557624058735,173.02145149663377</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -19582,7 +19582,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-41.03154382415281,173.02127769628146</t>
+          <t>-41.03155558555952,173.02142582292163</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -19599,7 +19599,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-41.031543382626666,173.02127213561786</t>
+          <t>-41.03155294583545,173.0213925772414</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-41.03155039064856,173.021360396372</t>
+          <t>-41.03155164945501,173.02137625018236</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-41.03154954518035,173.02134974829073</t>
+          <t>-41.03155067247109,173.02136394573245</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -19650,7 +19650,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-41.03155690072094,173.0214423866067</t>
+          <t>-41.031550963687586,173.021367613405</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-41.03155324644508,173.02139636322622</t>
+          <t>-41.0315496485154,173.02135104972288</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-41.031552570073245,173.02138784476045</t>
+          <t>-41.03155001488504,173.0213556638914</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-41.03156545860615,173.02155016888787</t>
+          <t>-41.0315519124889,173.02137956291892</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-41.031550071249576,173.0213563737635</t>
+          <t>-41.03155269219597,173.02138938281675</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-41.031559089520066,173.02146995331262</t>
+          <t>-41.0315534061439,173.02139837453066</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-41.03156147558541,173.0215000045735</t>
+          <t>-41.03155421403149,173.02140854936502</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-41.031562349221545,173.02151100759477</t>
+          <t>-41.03155611162438,173.0214324483956</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-41.03156063013008,173.0214893564887</t>
+          <t>-41.03155652496079,173.02143765412518</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -19803,7 +19803,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-41.031556487384755,173.02143718087703</t>
+          <t>-41.03155651556678,173.02143753581313</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -19820,7 +19820,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-41.031562724978706,173.02151574007712</t>
+          <t>-41.031556994660974,173.0214435697271</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-41.031553002199765,173.02139328711354</t>
+          <t>-41.031557191934944,173.02144605427992</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -19854,7 +19854,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-41.031561982858136,173.02150639342454</t>
+          <t>-41.03155815012211,173.02145812210816</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-41.03154844607019,173.02133590578552</t>
+          <t>-41.031557501936824,173.02144995857725</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -19888,7 +19888,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-41.03154603177961,173.02130549960046</t>
+          <t>-41.03155657193082,173.02143824568537</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -19905,7 +19905,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-41.03154162591352,173.02125001127624</t>
+          <t>-41.03155386645205,173.02140417182</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-41.03155948406685,173.0214749224186</t>
+          <t>-41.031548896987374,173.02134158476196</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-41.03155443009429,173.0214112705417</t>
+          <t>-41.03155039064856,173.021360396372</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-41.03156252770623,173.02151325552387</t>
+          <t>-41.03155451464059,173.02141233534996</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-41.03155842254765,173.02146155315742</t>
+          <t>-41.031555294344884,173.0214221552486</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-41.03156078043333,173.02149124948153</t>
+          <t>-41.031556214958506,173.02143374982796</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-41.03155686314495,173.02144191335856</t>
+          <t>-41.031556308898615,173.02143493294832</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-41.03155888285263,173.0214673504476</t>
+          <t>-41.031556628294865,173.02143895555758</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-41.03155840375969,173.02146131653333</t>
+          <t>-41.031558723155,173.02146533914285</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-41.03155558555952,173.02142582292163</t>
+          <t>-41.031558375577745,173.0214609615972</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-41.031550606712514,173.02136311754833</t>
+          <t>-41.03155759587675,173.02145114169767</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-41.031547393928975,173.0213226548408</t>
+          <t>-41.03155639344468,173.02143599775667</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -20109,7 +20109,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-41.031542020469786,173.02125498037958</t>
+          <t>-41.03155514404051,173.02142026225607</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-41.03154364566356,173.02127544835358</t>
+          <t>-41.03155410130304,173.02140712962068</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-41.03154437840869,173.021284676689</t>
+          <t>-41.031553293415335,173.02139695478633</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-41.03154555267821,173.02129946568851</t>
+          <t>-41.03155270159004,173.02138950112877</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -20177,7 +20177,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-41.031542452602594,173.021260422731</t>
+          <t>-41.031550550348015,173.02136240767624</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-41.031542368054886,173.0212593579231</t>
+          <t>-41.03154900971663,173.02134300450606</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -20211,7 +20211,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-41.031557746180624,173.02145303469032</t>
+          <t>-41.031548192429135,173.0213327113613</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-41.031542208353635,173.02125734661934</t>
+          <t>-41.03154583450261,173.02130301504846</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -20245,7 +20245,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-41.03155894861045,173.02146817863195</t>
+          <t>-41.03154659542795,173.0213125983205</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -20262,7 +20262,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-41.03154714028757,173.02131946041666</t>
+          <t>-41.03154664239861,173.02131318988052</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-41.03155040943675,173.02136063299602</t>
+          <t>-41.03154791060565,173.02132916200108</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-41.03155962497637,173.02147669709933</t>
+          <t>-41.03155010882594,173.02135684701153</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -20313,7 +20313,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-41.031562903463275,173.02151798800625</t>
+          <t>-41.031551536726155,173.0213748304381</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-41.03156515800158,173.02154638290168</t>
+          <t>-41.031552898865186,173.02139198568128</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-41.0315591834598,173.0214711364331</t>
+          <t>-41.031555923744115,173.02143008215486</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -20364,7 +20364,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-41.03156355164375,173.0215261515385</t>
+          <t>-41.03155657193082,173.02143824568537</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-41.03155201582363,173.02138086435113</t>
+          <t>-41.0315576616347,173.02145196988195</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -20398,7 +20398,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-41.03156039528121,173.02148639868741</t>
+          <t>-41.03155782133255,173.02145398118665</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-41.03154683967541,173.02131567443257</t>
+          <t>-41.031557858908506,173.02145445443483</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-41.031536919404445,173.02119073697645</t>
+          <t>-41.031553152504586,173.02139518010594</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -20449,7 +20449,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-41.03154511115309,173.02129390502463</t>
+          <t>-41.03154825818795,173.02133353954537</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-41.03154093074244,173.02124125618954</t>
+          <t>-41.03154703695215,173.02131815898463</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -20483,7 +20483,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-41.031561982858136,173.02150639342454</t>
+          <t>-41.03154916941638,173.02134501581025</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -20500,7 +20500,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-41.03156013225038,173.02148308595</t>
+          <t>-41.03154865274059,173.02133850864973</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-41.031556816174934,173.02144132179836</t>
+          <t>-41.03155031549587,173.02135944987586</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-41.03156007588661,173.0214823760777</t>
+          <t>-41.03155417645533,173.0214080761169</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-41.03155344372008,173.02139884777876</t>
+          <t>-41.03155407312092,173.02140677468458</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-41.03155265461976,173.02138890956866</t>
+          <t>-41.03155389463418,173.02140452675607</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -20585,7 +20585,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-41.031559822249626,173.02147918165235</t>
+          <t>-41.031555735863805,173.02142771591417</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-41.031553631600985,173.02140121401928</t>
+          <t>-41.03155665647687,173.0214393104937</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-41.03155326523317,173.02139659985028</t>
+          <t>-41.031556233746535,173.02143398645205</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-41.031558648003184,173.0214643926465</t>
+          <t>-41.03155649677877,173.02143729918907</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-41.031536693942165,173.02118789748923</t>
+          <t>-41.03155451464059,173.02141233534996</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-41.031545496313306,173.02129875581653</t>
+          <t>-41.03154954518035,173.02134974829073</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -20687,7 +20687,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-41.03156042346308,173.02148675362358</t>
+          <t>-41.03155135823879,173.02137258250974</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -20704,7 +20704,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-41.03155119853951,173.02137057120544</t>
+          <t>-41.031550954293515,173.02136749509296</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -20721,7 +20721,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-41.0315534061439,173.02139837453066</t>
+          <t>-41.03155098247574,173.02136785002904</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-41.0315598316436,173.0214792999644</t>
+          <t>-41.03155117035729,173.02137021626936</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-41.0315564122327,173.02143623438076</t>
+          <t>-41.03155445827639,173.02141162547778</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-41.031552194310834,173.02138311227955</t>
+          <t>-41.03155413887919,173.02140760286878</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-41.03156080861518,173.0214916044177</t>
+          <t>-41.031554974948044,173.0214181326395</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-41.031561569524825,173.02150118769404</t>
+          <t>-41.031555707681754,173.02142736097807</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-41.0315603764933,173.0214861620633</t>
+          <t>-41.03155616798845,173.0214331582678</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -20840,7 +20840,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-41.03156063952404,173.02148947480075</t>
+          <t>-41.03155658132483,173.02143836399742</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-41.03156738435127,173.02157442286276</t>
+          <t>-41.031557483148845,173.02144972195316</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -20874,7 +20874,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-41.03156099649417,173.02149397065875</t>
+          <t>-41.031557746180624,173.02145303469032</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-41.031560592554264,173.0214888832405</t>
+          <t>-41.0315579528484,173.02145563755525</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-41.03156181376727,173.02150426380751</t>
+          <t>-41.03155911770199,173.02147030824875</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-41.031560489220766,173.02148758180792</t>
+          <t>-41.0315602637658,173.0214847423187</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-41.03155046580125,173.02136134286812</t>
+          <t>-41.03155975649187,173.021478353468</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -20959,7 +20959,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-41.03153100099647,173.02111620044377</t>
+          <t>-41.03155708860096,173.0214447528475</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-41.03154581571431,173.02130277842448</t>
+          <t>-41.03155482464361,173.02141623964698</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-41.03155051277167,173.02136193442817</t>
+          <t>-41.03154765696442,173.02132596757693</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-41.031552447950475,173.02138630670416</t>
+          <t>-41.03154605056791,173.02130573622446</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-41.03157024008099,173.02161038973546</t>
+          <t>-41.03155000549095,173.02135554557938</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-41.03155956861256,173.02147598722703</t>
+          <t>-41.031555717075776,173.02142747929008</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-41.0315603764933,173.0214861620633</t>
+          <t>-41.03155649677877,173.02143729918907</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-41.031555284950855,173.02142203693654</t>
+          <t>-41.03155807497022,173.0214571756118</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -21095,7 +21095,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-41.03155459918689,173.02141340015825</t>
+          <t>-41.03155757708877,173.02145090507358</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-41.03156078982728,173.02149136779357</t>
+          <t>-41.03155798103036,173.02145599249138</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-41.03155483403763,173.02141635795903</t>
+          <t>-41.031557624058735,173.02145149663377</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -21146,7 +21146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-41.03154917881047,173.0213451341223</t>
+          <t>-41.031556778598926,173.0214408485502</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-41.03154431264955,173.02128384850505</t>
+          <t>-41.031556158594434,173.02143303995575</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-41.031559221035685,173.02147160968127</t>
+          <t>-41.03155644041472,173.02143658931683</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-41.03154707452867,173.02131863223264</t>
+          <t>-41.03155286128897,173.02139151243318</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-41.031549244569185,173.02134596230636</t>
+          <t>-41.031549958520486,173.0213549540193</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-41.03155291765329,173.02139222230534</t>
+          <t>-41.031552109764256,173.02138204747135</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-41.03155425160762,173.02140902261314</t>
+          <t>-41.03155254189106,173.0213874898244</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -21265,7 +21265,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-41.031564199823656,173.02153431507088</t>
+          <t>-41.03155448645849,173.0214119804139</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -21282,7 +21282,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-41.03155517222258,173.02142061719215</t>
+          <t>-41.03155381008779,173.0214034619478</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -21299,7 +21299,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-41.03155567010569,173.02142688772992</t>
+          <t>-41.03155407312092,173.02140677468458</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-41.03155881709478,173.0214665222633</t>
+          <t>-41.0315546649451,173.02141422834245</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-41.031584293113646,173.0217873846542</t>
+          <t>-41.031557962242374,173.0214557558673</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -21350,7 +21350,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-41.031554007362665,173.02140594650038</t>
+          <t>-41.031557567694776,173.02145078676153</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -21367,7 +21367,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-41.0315584976995,173.02146249965378</t>
+          <t>-41.031557652240714,173.0214518515699</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-41.03155905194417,173.02146948006444</t>
+          <t>-41.0315577649686,173.0214532713144</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -21401,7 +21401,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-41.03156061134218,173.0214891198646</t>
+          <t>-41.0315588922466,173.02146746875965</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-41.03156144740358,173.02149964963735</t>
+          <t>-41.0315605455845,173.02148829168024</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-41.0315425183619,173.02126125091488</t>
+          <t>-41.031559437097016,173.02147433085838</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-41.03155527555683,173.02142191862453</t>
+          <t>-41.031553077352186,173.02139423360975</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-41.031548605770055,173.02133791708965</t>
+          <t>-41.03155195945922,173.02138015447903</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -21486,7 +21486,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-41.03158470643402,173.02179259038823</t>
+          <t>-41.03155777436258,173.02145338962643</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-41.03155905194417,173.02146948006444</t>
+          <t>-41.03156190770664,173.02150544692807</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-41.03155857285133,173.02146344615014</t>
+          <t>-41.031561240736806,173.02149704677217</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-41.03155984103756,173.02147941827644</t>
+          <t>-41.031561005888136,173.0214940889708</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -21554,7 +21554,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-41.03155777436258,173.02145338962643</t>
+          <t>-41.0315605455845,173.02148829168024</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-41.03155686314495,173.02144191335856</t>
+          <t>-41.031560085280574,173.02148249438972</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-41.031558582245324,173.02146356446215</t>
+          <t>-41.03155991618927,173.02148036477286</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-41.031555857986014,173.02142925397064</t>
+          <t>-41.031559981947005,173.0214811929572</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -21622,7 +21622,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-41.031548577587714,173.02133756215363</t>
+          <t>-41.03155884527671,173.02146687719943</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-41.031534007177974,173.0211540602682</t>
+          <t>-41.031557379814885,173.02144842052073</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-41.03154620087416,173.02130762921647</t>
+          <t>-41.03155636526265,173.02143564282056</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -21673,7 +21673,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-41.031551330056566,173.0213722275737</t>
+          <t>-41.03155020276684,173.0213580301317</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -21690,7 +21690,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-41.03155627132256,173.0214344597002</t>
+          <t>-41.03155380069377,173.02140334363577</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-41.03155924921761,173.0214719646174</t>
+          <t>-41.031555613741574,173.02142617785773</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-41.03155911770199,173.02147030824875</t>
+          <t>-41.031556487384755,173.02143718087703</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-41.03155689132696,173.02144226829466</t>
+          <t>-41.03155657193082,173.02143824568537</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -21758,7 +21758,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-41.0315618983127,173.02150532861603</t>
+          <t>-41.0315586855791,173.02146486589464</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-41.03159704018153,173.02194793425446</t>
+          <t>-41.03156508285041,173.02154543640512</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-41.031560226189974,173.0214842690705</t>
+          <t>-41.03156438770178,173.02153668131217</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-41.03155830981984,173.0214601334129</t>
+          <t>-41.031563626795084,173.021527098035</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-41.031561794979396,173.0215040271834</t>
+          <t>-41.031563420128926,173.02152449516961</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-41.03156434073226,173.02153608975186</t>
+          <t>-41.0315635140681,173.02152567829023</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-41.031557530118796,173.02145031351336</t>
+          <t>-41.03155718254096,173.02144593596788</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -21894,7 +21894,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-41.03155170581941,173.02137696005448</t>
+          <t>-41.03155535070902,173.0214228651208</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-41.03156118437314,173.02149633689984</t>
+          <t>-41.031556806780934,173.02144120348632</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-41.03155907073213,173.02146971668853</t>
+          <t>-41.03155726708693,173.02144700077622</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-41.03155227885739,173.02138417708775</t>
+          <t>-41.03155643102072,173.02143647100482</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -21962,7 +21962,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-41.0315581595161,173.02145824042017</t>
+          <t>-41.03155667526489,173.02143954711778</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-41.03155706981297,173.0214445162234</t>
+          <t>-41.0315567316289,173.02144025699002</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-41.031556553142806,173.0214380090613</t>
+          <t>-41.03155671284091,173.02144002036593</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -22013,7 +22013,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-41.03155764284672,173.02145173325786</t>
+          <t>-41.03155679738693,173.02144108517427</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-41.03156000073492,173.02148142958129</t>
+          <t>-41.03155708860096,173.0214447528475</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-41.0315588546707,173.02146699551147</t>
+          <t>-41.03155723890494,173.02144664584011</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-41.03156120316102,173.02149657352393</t>
+          <t>-41.03155754890678,173.02145055013744</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-41.031560742857515,173.02149077623332</t>
+          <t>-41.03155777436258,173.02145338962643</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-41.03155902376225,173.0214691251283</t>
+          <t>-41.031557858908506,173.02145445443483</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -22115,7 +22115,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-41.03155029670771,173.02135921325183</t>
+          <t>-41.031557379814885,173.02144842052073</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-41.031559587400494,173.02147622385112</t>
+          <t>-41.031557511330824,173.0214500768893</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-41.03155804678828,173.0214568206757</t>
+          <t>-41.0315575395128,173.02145043182543</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-41.03156181376727,173.02150426380751</t>
+          <t>-41.0315577649686,173.0214532713144</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
